--- a/fuentes/contenidos/grado06/guion08/SolicitudGrafica_CN_06_08_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion08/SolicitudGrafica_CN_06_08_CO.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\Aulaplaneta All\Trabajos de editor\EDITOR\Sofía CN_06_08_CO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1080" windowWidth="35025" windowHeight="17235" tabRatio="500"/>
+    <workbookView xWindow="2180" yWindow="660" windowWidth="35020" windowHeight="17240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="253">
   <si>
     <t>Fecha:</t>
   </si>
@@ -806,6 +801,33 @@
   <si>
     <t>http://es.wikipedia.org/wiki/%C3%81reas_protegidas_de_Colombia#/media/File:Mapa_de_Colombia_(parques_naturales).svg</t>
   </si>
+  <si>
+    <t>CREDITO: &lt;a href="http://www.shutterstock.com/gallery-403501p1.html?cr=00&amp;pl=edit-00"&gt;Toniflap&lt;/a&gt; / &lt;a href="http://www.shutterstock.com/editorial?cr=00&amp;pl=edit-00"&gt;Shutterstock.com&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>CREDITO: «Mapa de Colombia (regiones naturales)» de Shadowxfox - Trabajo propiohttp://geoportal.igac.gov.co/mapas_de_colombia/IGAC/Tematicos2012/RegionesGeograficas.pdf. Disponible bajo la licencia CC BY-SA 4.0 vía Wikimedia Commons - http://commons.wikimedia.org/wiki/File:Mapa_de_Colombia_(regiones_naturales).svg#/media/File:Mapa_de_Colombia_(regiones_naturales).svg</t>
+  </si>
+  <si>
+    <t>CREDITO: «Cardinalis phoeniceus from Venezuela» de The Photographer - Trabajo propio. Disponible bajo la licencia CC0 vía Wikimedia Commons - http://commons.wikimedia.org/wiki/File:Cardinalis_phoeniceus_from_Venezuela.jpg#/media/File:Cardinalis_phoeniceus_from_Venezuela.jpg</t>
+  </si>
+  <si>
+    <t>CREDITO: «Eudocimus Ruber Wading KL» de Bjørn Christian Tørrissen - Own work by uploader, http://bjornfree.com/galleries.html. Disponible bajo la licencia CC BY-SA 3.0 vía Wikimedia Commons - http://commons.wikimedia.org/wiki/File:Eudocimus_Ruber_Wading_KL.JPG#/media/File:Eudocimus_Ruber_Wading_KL.JPG</t>
+  </si>
+  <si>
+    <t>CREDITO: Autor: franzleonardo</t>
+  </si>
+  <si>
+    <t>CREDITO: "Ruddy Duck female RWD" by DickDaniels (http://carolinabirds.org/) - Own work. Licensed under CC BY-SA 3.0 via Wikimedia Commons - http://commons.wikimedia.org/wiki/File:Ruddy_Duck_female_RWD.jpg#/media/File:Ruddy_Duck_female_RWD.jpg</t>
+  </si>
+  <si>
+    <t>CREDITO: «Casa sobre pilotes en la Ciénaga Grande de Santa Marta Colombia» de User:Oliver H - Trabajo propio. Disponible bajo la licencia CC BY-SA 3.0 vía Wikimedia Commons - http://commons.wikimedia.org/wiki/File:Casa_sobre_pilotes_en_la_Ci%C3%A9naga_Grande_de_Santa_Marta_Colombia.jpeg#/media/File:Casa_sobre_pilotes_en_la_Ci%C3%A9naga_Grande_de_Santa_Marta_Colombia.jpeg</t>
+  </si>
+  <si>
+    <t>Foto salto de tequendama CREDITO: By Petruss (Own work) [CC BY-SA 3.0 (http://creativecommons.org/licenses/by-sa/3.0)], via Wikimedia Commons</t>
+  </si>
+  <si>
+    <t>CREDITO: «Mapa de Colombia (parques naturales)» de Shadowxfox - Trabajo propio. Disponible bajo la licencia CC BY-SA 4.0 vía Wikimedia Commons - http://commons.wikimedia.org/wiki/File:Mapa_de_Colombia_(parques_naturales).svg#/media/File:Mapa_de_Colombia_(parques_naturales).svg</t>
+  </si>
 </sst>
 </file>
 
@@ -814,7 +836,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -861,11 +883,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
     </font>
@@ -1499,7 +1516,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1551,12 +1568,61 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1599,9 +1665,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1620,14 +1683,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1645,7 +1705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1666,49 +1726,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1729,62 +1789,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1792,13 +1865,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1815,16 +1888,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1833,22 +1906,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1878,27 +1951,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="101">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1950,6 +2022,55 @@
     <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -2038,13 +2159,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2057,7 +2178,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2065,20 +2186,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2091,15 +2198,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2112,7 +2219,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2120,20 +2227,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2148,13 +2241,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2167,7 +2260,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2175,20 +2268,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2203,13 +2282,13 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2222,7 +2301,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2230,20 +2309,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2256,13 +2321,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:colOff>1041400</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -2277,7 +2342,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2285,20 +2350,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2311,13 +2362,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1057275</xdr:colOff>
+          <xdr:colOff>1054100</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>866775</xdr:colOff>
+          <xdr:colOff>863600</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -2332,7 +2383,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2340,20 +2391,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2366,7 +2403,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2387,7 +2424,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2395,20 +2432,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2741,119 +2764,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="26" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.83203125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="2"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="F2" s="85" t="s">
+      <c r="D2" s="96"/>
+      <c r="F2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="94">
+      <c r="C3" s="97">
         <v>6</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="F3" s="87">
+      <c r="D3" s="98"/>
+      <c r="F3" s="90">
         <v>42119</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="97"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="99"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="43" t="str">
+      <c r="F5" s="41" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v/>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="67"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="65"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2861,20 +2884,20 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="1"/>
@@ -2884,18 +2907,18 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="89" t="s">
+      <c r="F8" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="91"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="94"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2904,55 +2927,55 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="66" t="s">
+      <c r="I9" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="s">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A10" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="71">
+      <c r="B10" s="69">
         <v>239012698</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F10" s="14" t="str">
@@ -2971,25 +2994,25 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J10" s="118" t="s">
+      <c r="J10" s="83" t="s">
         <v>162</v>
       </c>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="69">
         <v>98198936</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F11" s="14" t="str">
@@ -3008,25 +3031,25 @@
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J11" s="77" t="s">
+      <c r="J11" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="K11" s="82"/>
-    </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="80"/>
+    </row>
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="74">
+      <c r="B12" s="72">
         <v>114745942</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F12" s="14" t="str">
@@ -3045,25 +3068,25 @@
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="77" t="s">
+      <c r="J12" s="75" t="s">
         <v>164</v>
       </c>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F13" s="14" t="str">
@@ -3082,25 +3105,25 @@
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J13" s="78" t="s">
+      <c r="J13" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="K13" s="84"/>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="82"/>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B14" s="119">
+      <c r="B14" s="84">
         <v>54850030</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F14" s="14" t="str">
@@ -3119,25 +3142,25 @@
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J14" s="77" t="s">
+      <c r="J14" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="K14" s="82"/>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="80"/>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B15" s="119">
+      <c r="B15" s="84">
         <v>177840059</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F15" s="14" t="str">
@@ -3156,25 +3179,25 @@
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="77" t="s">
+      <c r="J15" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="K15" s="84"/>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="82"/>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="73" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F16" s="14" t="str">
@@ -3193,25 +3216,27 @@
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="79" t="s">
+      <c r="J16" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="81" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="119">
+      <c r="B17" s="84">
         <v>61776652</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="72" t="s">
+      <c r="E17" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F17" s="14" t="str">
@@ -3230,25 +3255,25 @@
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="80" t="s">
+      <c r="J17" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B18" s="119">
+      <c r="B18" s="84">
         <v>129772079</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F18" s="14" t="str">
@@ -3267,25 +3292,25 @@
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J18" s="80" t="s">
+      <c r="J18" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="119">
-        <v>121661563</v>
-      </c>
-      <c r="C19" s="72" t="s">
+      <c r="B19" s="84">
+        <v>129772079</v>
+      </c>
+      <c r="C19" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="72" t="s">
+      <c r="E19" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F19" s="14" t="str">
@@ -3304,25 +3329,25 @@
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J19" s="79" t="s">
+      <c r="J19" s="121" t="s">
         <v>173</v>
       </c>
-      <c r="K19" s="83"/>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="81"/>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="71" customHeight="1">
       <c r="A20" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="72" t="s">
+      <c r="E20" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F20" s="14" t="str">
@@ -3341,25 +3366,27 @@
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J20" s="77" t="s">
+      <c r="J20" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+      <c r="K20" s="82" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A21" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="B21" s="119">
+      <c r="B21" s="84">
         <v>204676402</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F21" s="14" t="str">
@@ -3378,25 +3405,25 @@
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="80" t="s">
+      <c r="J21" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="67" customHeight="1">
+      <c r="A22" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="72" t="s">
+      <c r="E22" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F22" s="14" t="str">
@@ -3415,25 +3442,27 @@
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J22" s="81" t="s">
+      <c r="J22" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
+      <c r="K22" s="123" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A23" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F23" s="14" t="str">
@@ -3452,25 +3481,27 @@
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J23" s="77" t="s">
+      <c r="J23" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="70" t="s">
+      <c r="K23" s="82" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A24" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="119">
+      <c r="B24" s="84">
         <v>246302905</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="72" t="s">
+      <c r="D24" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="72" t="s">
+      <c r="E24" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F24" s="14" t="str">
@@ -3489,25 +3520,25 @@
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J24" s="72" t="s">
+      <c r="J24" s="70" t="s">
         <v>195</v>
       </c>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="70" t="s">
+    <row r="25" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A25" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="122" t="s">
         <v>236</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F25" s="14" t="str">
@@ -3526,27 +3557,27 @@
         <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J25" s="72" t="s">
+      <c r="J25" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="K25" s="77" t="s">
+      <c r="K25" s="75" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70" t="s">
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A26" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="B26" s="76">
+      <c r="B26" s="74">
         <v>70182970</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F26" s="14" t="str">
@@ -3565,26 +3596,26 @@
         <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J26" s="72" t="s">
+      <c r="J26" s="70" t="s">
         <v>198</v>
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70" t="s">
+    <row r="27" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A27" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="24">
         <v>69126064</v>
       </c>
-      <c r="C27" s="25" t="str">
+      <c r="C27" s="24" t="str">
         <f t="shared" ref="C27:C74" si="2">IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F27" s="14" t="str">
@@ -3603,26 +3634,26 @@
         <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J27" s="77" t="s">
+      <c r="J27" s="75" t="s">
         <v>199</v>
       </c>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="70" t="s">
+    <row r="28" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A28" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="24">
         <v>188407517</v>
       </c>
-      <c r="C28" s="25" t="str">
+      <c r="C28" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D28" s="72" t="s">
+      <c r="D28" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="72" t="s">
+      <c r="E28" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F28" s="14" t="str">
@@ -3641,26 +3672,26 @@
         <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J28" s="77" t="s">
+      <c r="J28" s="75" t="s">
         <v>200</v>
       </c>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="70" t="s">
+    <row r="29" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A29" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="24">
         <v>91801163</v>
       </c>
-      <c r="C29" s="25" t="str">
+      <c r="C29" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F29" s="14" t="str">
@@ -3679,26 +3710,26 @@
         <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J29" s="77" t="s">
+      <c r="J29" s="75" t="s">
         <v>201</v>
       </c>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="70" t="s">
+    <row r="30" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A30" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="24">
         <v>110972186</v>
       </c>
-      <c r="C30" s="25" t="str">
+      <c r="C30" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D30" s="72" t="s">
+      <c r="D30" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F30" s="14" t="str">
@@ -3717,26 +3748,26 @@
         <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J30" s="77" t="s">
+      <c r="J30" s="75" t="s">
         <v>202</v>
       </c>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="70" t="s">
+    <row r="31" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A31" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="24">
         <v>242104564</v>
       </c>
-      <c r="C31" s="25" t="str">
+      <c r="C31" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D31" s="72" t="s">
+      <c r="D31" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E31" s="72" t="s">
+      <c r="E31" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F31" s="14" t="str">
@@ -3755,26 +3786,26 @@
         <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J31" s="77" t="s">
+      <c r="J31" s="75" t="s">
         <v>203</v>
       </c>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="70" t="s">
+    <row r="32" spans="1:11" s="12" customFormat="1" ht="45" customHeight="1">
+      <c r="A32" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="24">
         <v>127699520</v>
       </c>
-      <c r="C32" s="25" t="str">
+      <c r="C32" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D32" s="72" t="s">
+      <c r="D32" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E32" s="72" t="s">
+      <c r="E32" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F32" s="14" t="str">
@@ -3793,26 +3824,28 @@
         <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J32" s="77" t="s">
+      <c r="J32" s="75" t="s">
         <v>204</v>
       </c>
-      <c r="K32" s="19"/>
-    </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="70" t="s">
+      <c r="K32" s="82" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A33" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="B33" s="120" t="s">
+      <c r="B33" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="25" t="str">
+      <c r="C33" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D33" s="72" t="s">
+      <c r="D33" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="72" t="s">
+      <c r="E33" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F33" s="14" t="str">
@@ -3831,26 +3864,26 @@
         <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J33" s="77" t="s">
+      <c r="J33" s="75" t="s">
         <v>205</v>
       </c>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="70" t="s">
+    <row r="34" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A34" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="24">
         <v>58283212</v>
       </c>
-      <c r="C34" s="25" t="str">
+      <c r="C34" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D34" s="72" t="s">
+      <c r="D34" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="72" t="s">
+      <c r="E34" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F34" s="14" t="str">
@@ -3869,26 +3902,26 @@
         <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J34" s="77" t="s">
+      <c r="J34" s="75" t="s">
         <v>207</v>
       </c>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="70" t="s">
+    <row r="35" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A35" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="24">
         <v>213694624</v>
       </c>
-      <c r="C35" s="25" t="str">
+      <c r="C35" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D35" s="72" t="s">
+      <c r="D35" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E35" s="72" t="s">
+      <c r="E35" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F35" s="14" t="str">
@@ -3907,26 +3940,26 @@
         <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J35" s="72" t="s">
+      <c r="J35" s="70" t="s">
         <v>208</v>
       </c>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="70" t="s">
+    <row r="36" spans="1:11" s="12" customFormat="1" ht="32" customHeight="1">
+      <c r="A36" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="120" t="s">
+      <c r="B36" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="C36" s="25" t="str">
+      <c r="C36" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D36" s="72" t="s">
+      <c r="D36" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E36" s="72" t="s">
+      <c r="E36" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F36" s="14" t="str">
@@ -3945,26 +3978,28 @@
         <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J36" s="72" t="s">
+      <c r="J36" s="70" t="s">
         <v>209</v>
       </c>
-      <c r="K36" s="15"/>
-    </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="70" t="s">
+      <c r="K36" s="80" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A37" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="24">
         <v>182591300</v>
       </c>
-      <c r="C37" s="25" t="str">
+      <c r="C37" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D37" s="72" t="s">
+      <c r="D37" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="72" t="s">
+      <c r="E37" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F37" s="14" t="str">
@@ -3983,26 +4018,26 @@
         <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J37" s="121" t="s">
+      <c r="J37" s="86" t="s">
         <v>223</v>
       </c>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="70" t="s">
+    <row r="38" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A38" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="B38" s="120" t="s">
+      <c r="B38" s="85" t="s">
         <v>225</v>
       </c>
-      <c r="C38" s="25" t="str">
+      <c r="C38" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D38" s="72" t="s">
+      <c r="D38" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E38" s="72" t="s">
+      <c r="E38" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F38" s="14" t="str">
@@ -4021,26 +4056,26 @@
         <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J38" s="44" t="s">
+      <c r="J38" s="42" t="s">
         <v>224</v>
       </c>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="70" t="s">
+    <row r="39" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A39" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="24">
         <v>166229555</v>
       </c>
-      <c r="C39" s="25" t="str">
+      <c r="C39" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D39" s="72" t="s">
+      <c r="D39" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E39" s="72" t="s">
+      <c r="E39" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F39" s="14" t="str">
@@ -4059,26 +4094,26 @@
         <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J39" s="72" t="s">
+      <c r="J39" s="70" t="s">
         <v>226</v>
       </c>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="70" t="s">
+    <row r="40" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A40" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="24">
         <v>70270159</v>
       </c>
-      <c r="C40" s="25" t="str">
+      <c r="C40" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D40" s="72" t="s">
+      <c r="D40" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E40" s="72" t="s">
+      <c r="E40" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F40" s="14" t="str">
@@ -4097,26 +4132,26 @@
         <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J40" s="72" t="s">
+      <c r="J40" s="70" t="s">
         <v>227</v>
       </c>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="70" t="s">
+    <row r="41" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A41" s="68" t="s">
         <v>216</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="24">
         <v>252491596</v>
       </c>
-      <c r="C41" s="25" t="str">
+      <c r="C41" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D41" s="72" t="s">
+      <c r="D41" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E41" s="72" t="s">
+      <c r="E41" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F41" s="14" t="str">
@@ -4135,26 +4170,26 @@
         <f>IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J41" s="72" t="s">
+      <c r="J41" s="70" t="s">
         <v>228</v>
       </c>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="70" t="s">
+    <row r="42" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A42" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="B42" s="25">
+      <c r="B42" s="24">
         <v>223580635</v>
       </c>
-      <c r="C42" s="25" t="str">
+      <c r="C42" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D42" s="72" t="s">
+      <c r="D42" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="72" t="s">
+      <c r="E42" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F42" s="14" t="str">
@@ -4173,26 +4208,26 @@
         <f>IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J42" s="72" t="s">
+      <c r="J42" s="70" t="s">
         <v>229</v>
       </c>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="70" t="s">
+    <row r="43" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A43" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="24">
         <v>182923085</v>
       </c>
-      <c r="C43" s="25" t="str">
+      <c r="C43" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D43" s="72" t="s">
+      <c r="D43" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E43" s="72" t="s">
+      <c r="E43" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F43" s="14" t="str">
@@ -4211,26 +4246,26 @@
         <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J43" s="72" t="s">
+      <c r="J43" s="70" t="s">
         <v>230</v>
       </c>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="70" t="s">
+    <row r="44" spans="1:11" s="12" customFormat="1" ht="48" customHeight="1">
+      <c r="A44" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="B44" s="120" t="s">
+      <c r="B44" s="85" t="s">
         <v>231</v>
       </c>
-      <c r="C44" s="25" t="str">
+      <c r="C44" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D44" s="72" t="s">
+      <c r="D44" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="72" t="s">
+      <c r="E44" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F44" s="14" t="str">
@@ -4249,26 +4284,28 @@
         <f>IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J44" s="72" t="s">
+      <c r="J44" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="K44" s="15"/>
-    </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="70" t="s">
+      <c r="K44" s="124" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A45" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45" s="24">
         <v>95174215</v>
       </c>
-      <c r="C45" s="25" t="str">
+      <c r="C45" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D45" s="72" t="s">
+      <c r="D45" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="72" t="s">
+      <c r="E45" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F45" s="14" t="str">
@@ -4287,26 +4324,26 @@
         <f>IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J45" s="72" t="s">
+      <c r="J45" s="70" t="s">
         <v>233</v>
       </c>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="70" t="s">
+    <row r="46" spans="1:11" s="12" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A46" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="B46" s="70" t="s">
+      <c r="B46" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C46" s="25" t="str">
+      <c r="C46" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D46" s="72" t="s">
+      <c r="D46" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E46" s="72" t="s">
+      <c r="E46" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F46" s="14" t="str">
@@ -4325,28 +4362,28 @@
         <f>IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J46" s="72" t="s">
+      <c r="J46" s="70" t="s">
         <v>234</v>
       </c>
-      <c r="K46" s="77" t="s">
+      <c r="K46" s="75" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="70" t="s">
+    <row r="47" spans="1:11" s="12" customFormat="1" ht="74" customHeight="1">
+      <c r="A47" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="C47" s="25" t="str">
+      <c r="C47" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D47" s="72" t="s">
+      <c r="D47" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E47" s="72" t="s">
+      <c r="E47" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F47" s="14" t="str">
@@ -4365,26 +4402,28 @@
         <f>IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J47" s="72" t="s">
+      <c r="J47" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="K47" s="15"/>
-    </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="70" t="s">
+      <c r="K47" s="80" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A48" s="68" t="s">
         <v>239</v>
       </c>
       <c r="B48" s="13">
         <v>167219486</v>
       </c>
-      <c r="C48" s="25" t="str">
+      <c r="C48" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D48" s="72" t="s">
+      <c r="D48" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="72" t="s">
+      <c r="E48" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F48" s="14" t="str">
@@ -4403,26 +4442,26 @@
         <f>IF(OR(B48&lt;&gt;"",J48&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J48" s="72" t="s">
+      <c r="J48" s="70" t="s">
         <v>240</v>
       </c>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="70" t="s">
+    <row r="49" spans="1:11" s="12" customFormat="1" ht="64" customHeight="1">
+      <c r="A49" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="B49" s="122" t="s">
+      <c r="B49" s="87" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="25" t="str">
+      <c r="C49" s="24" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D49" s="72" t="s">
+      <c r="D49" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E49" s="72" t="s">
+      <c r="E49" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F49" s="14" t="str">
@@ -4441,15 +4480,17 @@
         <f>IF(OR(B49&lt;&gt;"",J49&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J49" s="72" t="s">
+      <c r="J49" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="K49" s="15"/>
-    </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K49" s="124" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
-      <c r="C50" s="25" t="str">
+      <c r="C50" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4474,10 +4515,10 @@
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
-      <c r="C51" s="25" t="str">
+      <c r="C51" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4502,10 +4543,10 @@
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
-      <c r="C52" s="25" t="str">
+      <c r="C52" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4530,10 +4571,10 @@
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
-      <c r="C53" s="25" t="str">
+      <c r="C53" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4558,10 +4599,10 @@
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="25" t="str">
+      <c r="C54" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4586,10 +4627,10 @@
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
-      <c r="C55" s="25" t="str">
+      <c r="C55" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4614,10 +4655,10 @@
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
-      <c r="C56" s="25" t="str">
+      <c r="C56" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4642,10 +4683,10 @@
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
-      <c r="C57" s="25" t="str">
+      <c r="C57" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4670,10 +4711,10 @@
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
-      <c r="C58" s="25" t="str">
+      <c r="C58" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4698,10 +4739,10 @@
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
-      <c r="C59" s="25" t="str">
+      <c r="C59" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4726,10 +4767,10 @@
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
-      <c r="C60" s="25" t="str">
+      <c r="C60" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4754,13 +4795,13 @@
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A61" s="13" t="str">
-        <f t="shared" ref="A27:A83" si="3">IF(OR(B61&lt;&gt;"",J61&lt;&gt;""),CONCATENATE(LEFT(A60,3),IF(MID(A60,4,2)+1&lt;10,CONCATENATE("0",MID(A60,4,2)+1),MID(A60,4,2)+1)),"")</f>
+        <f t="shared" ref="A61:A83" si="3">IF(OR(B61&lt;&gt;"",J61&lt;&gt;""),CONCATENATE(LEFT(A60,3),IF(MID(A60,4,2)+1&lt;10,CONCATENATE("0",MID(A60,4,2)+1),MID(A60,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B61" s="13"/>
-      <c r="C61" s="25" t="str">
+      <c r="C61" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4785,13 +4826,13 @@
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A62" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B62" s="13"/>
-      <c r="C62" s="25" t="str">
+      <c r="C62" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4816,13 +4857,13 @@
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A63" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B63" s="13"/>
-      <c r="C63" s="25" t="str">
+      <c r="C63" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4847,13 +4888,13 @@
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A64" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B64" s="13"/>
-      <c r="C64" s="25" t="str">
+      <c r="C64" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4878,13 +4919,13 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A65" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B65" s="13"/>
-      <c r="C65" s="25" t="str">
+      <c r="C65" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4909,13 +4950,13 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A66" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B66" s="13"/>
-      <c r="C66" s="25" t="str">
+      <c r="C66" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4940,13 +4981,13 @@
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A67" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B67" s="13"/>
-      <c r="C67" s="25" t="str">
+      <c r="C67" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4971,13 +5012,13 @@
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A68" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B68" s="13"/>
-      <c r="C68" s="25" t="str">
+      <c r="C68" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5002,13 +5043,13 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A69" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B69" s="13"/>
-      <c r="C69" s="25" t="str">
+      <c r="C69" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5033,13 +5074,13 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A70" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B70" s="13"/>
-      <c r="C70" s="25" t="str">
+      <c r="C70" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5064,13 +5105,13 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A71" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B71" s="13"/>
-      <c r="C71" s="25" t="str">
+      <c r="C71" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5095,13 +5136,13 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A72" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B72" s="13"/>
-      <c r="C72" s="25" t="str">
+      <c r="C72" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5126,13 +5167,13 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A73" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B73" s="13"/>
-      <c r="C73" s="25" t="str">
+      <c r="C73" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5157,13 +5198,13 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A74" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B74" s="13"/>
-      <c r="C74" s="25" t="str">
+      <c r="C74" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5188,13 +5229,13 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A75" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B75" s="13"/>
-      <c r="C75" s="25" t="str">
+      <c r="C75" s="24" t="str">
         <f t="shared" ref="C75:C108" si="4">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
@@ -5219,13 +5260,13 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A76" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B76" s="13"/>
-      <c r="C76" s="25" t="str">
+      <c r="C76" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5250,13 +5291,13 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A77" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B77" s="13"/>
-      <c r="C77" s="25" t="str">
+      <c r="C77" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5281,13 +5322,13 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A78" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B78" s="13"/>
-      <c r="C78" s="25" t="str">
+      <c r="C78" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5312,13 +5353,13 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A79" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B79" s="13"/>
-      <c r="C79" s="25" t="str">
+      <c r="C79" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5343,13 +5384,13 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A80" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B80" s="13"/>
-      <c r="C80" s="25" t="str">
+      <c r="C80" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5374,13 +5415,13 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A81" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B81" s="13"/>
-      <c r="C81" s="25" t="str">
+      <c r="C81" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5405,13 +5446,13 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A82" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B82" s="13"/>
-      <c r="C82" s="25" t="str">
+      <c r="C82" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5436,13 +5477,13 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A83" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B83" s="13"/>
-      <c r="C83" s="25" t="str">
+      <c r="C83" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5467,13 +5508,13 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A84" s="13" t="str">
         <f t="shared" ref="A84:A108" si="7">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B84" s="13"/>
-      <c r="C84" s="25" t="str">
+      <c r="C84" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5498,13 +5539,13 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A85" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B85" s="13"/>
-      <c r="C85" s="25" t="str">
+      <c r="C85" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5529,13 +5570,13 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A86" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B86" s="13"/>
-      <c r="C86" s="25" t="str">
+      <c r="C86" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5560,13 +5601,13 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A87" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B87" s="13"/>
-      <c r="C87" s="25" t="str">
+      <c r="C87" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5591,13 +5632,13 @@
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A88" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B88" s="13"/>
-      <c r="C88" s="25" t="str">
+      <c r="C88" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5622,13 +5663,13 @@
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A89" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B89" s="13"/>
-      <c r="C89" s="25" t="str">
+      <c r="C89" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5653,13 +5694,13 @@
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A90" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B90" s="13"/>
-      <c r="C90" s="25" t="str">
+      <c r="C90" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5684,13 +5725,13 @@
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A91" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B91" s="13"/>
-      <c r="C91" s="25" t="str">
+      <c r="C91" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5715,13 +5756,13 @@
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A92" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B92" s="13"/>
-      <c r="C92" s="25" t="str">
+      <c r="C92" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5746,13 +5787,13 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A93" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B93" s="13"/>
-      <c r="C93" s="25" t="str">
+      <c r="C93" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5777,13 +5818,13 @@
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A94" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B94" s="13"/>
-      <c r="C94" s="25" t="str">
+      <c r="C94" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5808,13 +5849,13 @@
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A95" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B95" s="13"/>
-      <c r="C95" s="25" t="str">
+      <c r="C95" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5839,13 +5880,13 @@
       <c r="J95" s="14"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A96" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B96" s="13"/>
-      <c r="C96" s="25" t="str">
+      <c r="C96" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5870,13 +5911,13 @@
       <c r="J96" s="14"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A97" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B97" s="13"/>
-      <c r="C97" s="25" t="str">
+      <c r="C97" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5901,13 +5942,13 @@
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A98" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B98" s="13"/>
-      <c r="C98" s="25" t="str">
+      <c r="C98" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5932,13 +5973,13 @@
       <c r="J98" s="14"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A99" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B99" s="13"/>
-      <c r="C99" s="25" t="str">
+      <c r="C99" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5963,13 +6004,13 @@
       <c r="J99" s="14"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A100" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B100" s="13"/>
-      <c r="C100" s="25" t="str">
+      <c r="C100" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5994,13 +6035,13 @@
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A101" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B101" s="13"/>
-      <c r="C101" s="25" t="str">
+      <c r="C101" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6025,13 +6066,13 @@
       <c r="J101" s="14"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A102" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B102" s="13"/>
-      <c r="C102" s="25" t="str">
+      <c r="C102" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6056,13 +6097,13 @@
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A103" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B103" s="13"/>
-      <c r="C103" s="25" t="str">
+      <c r="C103" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6087,13 +6128,13 @@
       <c r="J103" s="14"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A104" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B104" s="13"/>
-      <c r="C104" s="25" t="str">
+      <c r="C104" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6118,13 +6159,13 @@
       <c r="J104" s="14"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A105" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B105" s="13"/>
-      <c r="C105" s="25" t="str">
+      <c r="C105" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6149,13 +6190,13 @@
       <c r="J105" s="14"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A106" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B106" s="13"/>
-      <c r="C106" s="25" t="str">
+      <c r="C106" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6180,13 +6221,13 @@
       <c r="J106" s="14"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A107" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B107" s="13"/>
-      <c r="C107" s="25" t="str">
+      <c r="C107" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6211,13 +6252,13 @@
       <c r="J107" s="14"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A108" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B108" s="13"/>
-      <c r="C108" s="25" t="str">
+      <c r="C108" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6297,7 +6338,7 @@
     <hyperlink ref="B16" r:id="rId2"/>
     <hyperlink ref="B20" r:id="rId3" location="/media/File:Cardinalis_phoeniceus_from_Venezuela.jpg"/>
     <hyperlink ref="B22" r:id="rId4" location="/media/File:Eudocimus_Ruber_Wading_KL.JPG"/>
-    <hyperlink ref="B23"/>
+    <hyperlink ref="B23" display="https://www.flickr.com/photos/franzleonardo/5934877768/in/photolist-a3rNoL-6fvN9v-6HGZgP-6fzTgE-71nYth-841MaJ-78H2oC-6e85QV-7wwWEx-6HH58r-b4TbCg-7wAKCU-a3rKrC-6HH7Ez-6K2b2h-hYruSQ-oFz8UD-kdSGP6-oVzGVJ-oXkw5B-oXRTRH-q5NyUr-jSWsLD-6JWUwK-ptcwvJ-pbJPt7-pbMYX"/>
     <hyperlink ref="B33" r:id="rId5"/>
     <hyperlink ref="B36" r:id="rId6" location="/media/File:Ruddy_Duck_female_RWD.jpg"/>
     <hyperlink ref="B38" r:id="rId7"/>
@@ -6305,7 +6346,7 @@
     <hyperlink ref="B49" r:id="rId9" location="/media/File:Mapa_de_Colombia_(parques_naturales).svg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6316,548 +6357,548 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
+  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="72.125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="28"/>
-    <col min="3" max="3" width="13.875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="28" customWidth="1"/>
-    <col min="5" max="7" width="10.875" style="28"/>
-    <col min="8" max="11" width="11" style="28" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="28"/>
+    <col min="1" max="1" width="72.1640625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="26"/>
+    <col min="3" max="3" width="13.83203125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="26" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="26"/>
+    <col min="8" max="11" width="11" style="26" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A1" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="105" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="38"/>
-    </row>
-    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="36"/>
+    </row>
+    <row r="3" spans="1:11" ht="63">
+      <c r="A3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="111" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="38"/>
-      <c r="H3" s="28" t="s">
+      <c r="D3" s="115"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="36"/>
+      <c r="H3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:11" ht="31.5">
+      <c r="A4" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="H4" s="28" t="s">
+      <c r="F4" s="36"/>
+      <c r="H4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="26">
         <v>1</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1">
+      <c r="A5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="114" t="str">
+      <c r="D5" s="117" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="38"/>
-      <c r="H5" s="28" t="s">
+      <c r="E5" s="118"/>
+      <c r="F5" s="36"/>
+      <c r="H5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="26">
         <v>2</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1">
+      <c r="A6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="H6" s="28" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="H6" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="26">
         <v>3</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+    <row r="7" spans="1:11" ht="48" thickBot="1">
+      <c r="A7" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="100" t="str">
+      <c r="D7" s="103" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="101"/>
-      <c r="H7" s="28" t="s">
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
+      <c r="H7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="26">
         <v>4</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:11" ht="47.25">
+      <c r="A8" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="I8" s="28" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="I8" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="26">
         <v>5</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:11" ht="47.25">
+      <c r="A9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="I9" s="28" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="I9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="26">
         <v>6</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="26">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1">
+      <c r="A10" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="I10" s="28" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="I10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="26">
         <v>7</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="26">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="28" t="s">
+    <row r="11" spans="1:11">
+      <c r="I11" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="26">
         <v>8</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="26">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="28" t="s">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1">
+      <c r="I12" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="26">
         <v>9</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="26">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="104"/>
-      <c r="I13" s="28" t="s">
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
+      <c r="I13" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="26">
         <v>10</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="26">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-      <c r="I14" s="28" t="s">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A14" s="37"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="I14" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="26">
         <v>11</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="26">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="105" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="107"/>
-      <c r="J15" s="28">
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="110"/>
+      <c r="J15" s="26">
         <v>12</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="26">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+    <row r="16" spans="1:11" ht="67.25" customHeight="1">
+      <c r="A16" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="26">
         <v>13</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="26">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+    <row r="17" spans="1:11" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A17" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="34" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="108" t="str">
+      <c r="D17" s="111" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="109"/>
-      <c r="F17" s="110"/>
-      <c r="J17" s="28">
+      <c r="E17" s="112"/>
+      <c r="F17" s="113"/>
+      <c r="J17" s="26">
         <v>14</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="26">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1">
+      <c r="A18" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="68" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="100" t="str">
+      <c r="D18" s="103" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="100"/>
-      <c r="F18" s="101"/>
-      <c r="J18" s="28">
+      <c r="E18" s="103"/>
+      <c r="F18" s="104"/>
+      <c r="J18" s="26">
         <v>15</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="26">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+    <row r="19" spans="1:11">
+      <c r="A19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="H19" s="28">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
+      <c r="H19" s="26">
         <v>3</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="26">
         <v>16</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="26">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1">
+      <c r="A20" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="H20" s="28">
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="H20" s="26">
         <v>4</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="26">
         <v>5</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="26">
         <v>4</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="26">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H21" s="28" t="str">
+    <row r="21" spans="1:11">
+      <c r="H21" s="26" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
       </c>
-      <c r="I21" s="28" t="str">
+      <c r="I21" s="26" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>07</v>
       </c>
-      <c r="J21" s="28" t="str">
+      <c r="J21" s="26" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>04</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="26">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="28">
+    <row r="22" spans="1:11">
+      <c r="K22" s="26">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="28">
+    <row r="23" spans="1:11">
+      <c r="K23" s="26">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="28">
+    <row r="24" spans="1:11">
+      <c r="K24" s="26">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="28">
+    <row r="25" spans="1:11">
+      <c r="K25" s="26">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="28">
+    <row r="26" spans="1:11">
+      <c r="K26" s="26">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="28">
+    <row r="27" spans="1:11">
+      <c r="K27" s="26">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="28">
+    <row r="28" spans="1:11">
+      <c r="K28" s="26">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="28">
+    <row r="29" spans="1:11">
+      <c r="K29" s="26">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="28">
+    <row r="30" spans="1:11">
+      <c r="K30" s="26">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="28">
+    <row r="31" spans="1:11">
+      <c r="K31" s="26">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="28">
+    <row r="32" spans="1:11">
+      <c r="K32" s="26">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="28">
+    <row r="33" spans="11:11">
+      <c r="K33" s="26">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="28">
+    <row r="34" spans="11:11">
+      <c r="K34" s="26">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="28">
+    <row r="35" spans="11:11">
+      <c r="K35" s="26">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="28">
+    <row r="36" spans="11:11">
+      <c r="K36" s="26">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="28">
+    <row r="37" spans="11:11">
+      <c r="K37" s="26">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="28">
+    <row r="38" spans="11:11">
+      <c r="K38" s="26">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="28">
+    <row r="39" spans="11:11">
+      <c r="K39" s="26">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="28">
+    <row r="40" spans="11:11">
+      <c r="K40" s="26">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="28">
+    <row r="41" spans="11:11">
+      <c r="K41" s="26">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="28">
+    <row r="42" spans="11:11">
+      <c r="K42" s="26">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="28">
+    <row r="43" spans="11:11">
+      <c r="K43" s="26">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="28">
+    <row r="44" spans="11:11">
+      <c r="K44" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="28" t="str">
+    <row r="45" spans="11:11">
+      <c r="K45" s="26" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -6890,18 +6931,19 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6910,20 +6952,21 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6934,18 +6977,19 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6956,18 +7000,19 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6976,13 +7021,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1038225</xdr:colOff>
+                    <xdr:colOff>1041400</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -6990,6 +7035,7 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6998,13 +7044,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1057275</xdr:colOff>
+                    <xdr:colOff>1054100</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>866775</xdr:colOff>
+                    <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -7012,6 +7058,7 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -7020,7 +7067,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7034,9 +7081,11 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7055,564 +7104,564 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21" style="28" customWidth="1"/>
-    <col min="2" max="2" width="22.125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="28"/>
-    <col min="5" max="5" width="11.625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="11" style="28" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="28" customWidth="1"/>
-    <col min="9" max="9" width="22.125" style="28" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="28" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="28" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="28"/>
+    <col min="1" max="1" width="21" style="26" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="26"/>
+    <col min="5" max="5" width="11.6640625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="11" style="26" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="26" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="26" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="26" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="26" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="47" t="s">
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:11" s="47" customFormat="1">
+      <c r="A3" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-    </row>
-    <row r="4" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+    </row>
+    <row r="4" spans="1:11" s="47" customFormat="1">
+      <c r="A4" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50" t="s">
+      <c r="G4" s="48"/>
+      <c r="H4" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="50"/>
-    </row>
-    <row r="5" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="J4" s="48"/>
+    </row>
+    <row r="5" spans="1:11" s="47" customFormat="1">
+      <c r="A5" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="50" t="s">
+      <c r="G5" s="50"/>
+      <c r="H5" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="52"/>
-    </row>
-    <row r="6" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="J5" s="50"/>
+    </row>
+    <row r="6" spans="1:11" s="47" customFormat="1">
+      <c r="A6" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="48" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="49" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+    <row r="7" spans="1:11" s="47" customFormat="1" ht="25.5">
+      <c r="A7" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50" t="s">
+      <c r="G7" s="48"/>
+      <c r="H7" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="50"/>
-    </row>
-    <row r="8" spans="1:11" s="49" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="J7" s="48"/>
+    </row>
+    <row r="8" spans="1:11" s="47" customFormat="1" ht="25.5">
+      <c r="A8" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50" t="s">
+      <c r="G8" s="48"/>
+      <c r="H8" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="50"/>
-    </row>
-    <row r="9" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="J8" s="48"/>
+    </row>
+    <row r="9" spans="1:11" s="47" customFormat="1">
+      <c r="A9" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50" t="s">
+      <c r="G9" s="48"/>
+      <c r="H9" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="J9" s="50"/>
-    </row>
-    <row r="10" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="J9" s="48"/>
+    </row>
+    <row r="10" spans="1:11" s="47" customFormat="1">
+      <c r="A10" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50" t="s">
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="50"/>
-    </row>
-    <row r="11" spans="1:11" s="49" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="J10" s="48"/>
+    </row>
+    <row r="11" spans="1:11" s="47" customFormat="1" ht="25.5">
+      <c r="A11" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50" t="s">
+      <c r="G11" s="48"/>
+      <c r="H11" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="J11" s="50"/>
-    </row>
-    <row r="12" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="J11" s="48"/>
+    </row>
+    <row r="12" spans="1:11" s="47" customFormat="1">
+      <c r="A12" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50" t="s">
+      <c r="G12" s="48"/>
+      <c r="H12" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="50"/>
-    </row>
-    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="J12" s="48"/>
+    </row>
+    <row r="13" spans="1:11" ht="63">
+      <c r="A13" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="55" t="s">
+      <c r="E13" s="52"/>
+      <c r="F13" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50" t="s">
+      <c r="G13" s="51"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="53"/>
-      <c r="K13" s="28" t="s">
+      <c r="J13" s="51"/>
+      <c r="K13" s="26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55" t="s">
+      <c r="E14" s="52"/>
+      <c r="F14" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50" t="s">
+      <c r="G14" s="51"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="53"/>
-    </row>
-    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="J14" s="51"/>
+    </row>
+    <row r="15" spans="1:11" ht="31.5">
+      <c r="A15" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="50" t="s">
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="28" t="s">
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+    <row r="16" spans="1:11" ht="94.5">
+      <c r="A16" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="51" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="52"/>
+      <c r="H16" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="56" t="s">
+      <c r="J16" s="52"/>
+      <c r="K16" s="54" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+    <row r="17" spans="1:11" ht="25.5">
+      <c r="A17" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="57" t="s">
+      <c r="G17" s="48"/>
+      <c r="H17" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="50"/>
-      <c r="K17" s="58" t="s">
+      <c r="J17" s="48"/>
+      <c r="K17" s="56" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+    <row r="21" spans="1:11">
+      <c r="A21" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-    </row>
-    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+    </row>
+    <row r="24" spans="1:11" ht="31.5">
+      <c r="A24" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-    </row>
-    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="63" t="s">
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+    </row>
+    <row r="26" spans="1:11" ht="63">
+      <c r="A26" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/fuentes/contenidos/grado06/guion08/SolicitudGrafica_CN_06_08_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion08/SolicitudGrafica_CN_06_08_CO.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\Aulaplaneta All\Trabajos de editor\EDITOR\Sofía CN_06_08_CO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="660" windowWidth="35020" windowHeight="17240" tabRatio="500"/>
+    <workbookView xWindow="1260" yWindow="1080" windowWidth="35025" windowHeight="17235" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="244">
   <si>
     <t>Fecha:</t>
   </si>
@@ -801,33 +806,6 @@
   <si>
     <t>http://es.wikipedia.org/wiki/%C3%81reas_protegidas_de_Colombia#/media/File:Mapa_de_Colombia_(parques_naturales).svg</t>
   </si>
-  <si>
-    <t>CREDITO: &lt;a href="http://www.shutterstock.com/gallery-403501p1.html?cr=00&amp;pl=edit-00"&gt;Toniflap&lt;/a&gt; / &lt;a href="http://www.shutterstock.com/editorial?cr=00&amp;pl=edit-00"&gt;Shutterstock.com&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>CREDITO: «Mapa de Colombia (regiones naturales)» de Shadowxfox - Trabajo propiohttp://geoportal.igac.gov.co/mapas_de_colombia/IGAC/Tematicos2012/RegionesGeograficas.pdf. Disponible bajo la licencia CC BY-SA 4.0 vía Wikimedia Commons - http://commons.wikimedia.org/wiki/File:Mapa_de_Colombia_(regiones_naturales).svg#/media/File:Mapa_de_Colombia_(regiones_naturales).svg</t>
-  </si>
-  <si>
-    <t>CREDITO: «Cardinalis phoeniceus from Venezuela» de The Photographer - Trabajo propio. Disponible bajo la licencia CC0 vía Wikimedia Commons - http://commons.wikimedia.org/wiki/File:Cardinalis_phoeniceus_from_Venezuela.jpg#/media/File:Cardinalis_phoeniceus_from_Venezuela.jpg</t>
-  </si>
-  <si>
-    <t>CREDITO: «Eudocimus Ruber Wading KL» de Bjørn Christian Tørrissen - Own work by uploader, http://bjornfree.com/galleries.html. Disponible bajo la licencia CC BY-SA 3.0 vía Wikimedia Commons - http://commons.wikimedia.org/wiki/File:Eudocimus_Ruber_Wading_KL.JPG#/media/File:Eudocimus_Ruber_Wading_KL.JPG</t>
-  </si>
-  <si>
-    <t>CREDITO: Autor: franzleonardo</t>
-  </si>
-  <si>
-    <t>CREDITO: "Ruddy Duck female RWD" by DickDaniels (http://carolinabirds.org/) - Own work. Licensed under CC BY-SA 3.0 via Wikimedia Commons - http://commons.wikimedia.org/wiki/File:Ruddy_Duck_female_RWD.jpg#/media/File:Ruddy_Duck_female_RWD.jpg</t>
-  </si>
-  <si>
-    <t>CREDITO: «Casa sobre pilotes en la Ciénaga Grande de Santa Marta Colombia» de User:Oliver H - Trabajo propio. Disponible bajo la licencia CC BY-SA 3.0 vía Wikimedia Commons - http://commons.wikimedia.org/wiki/File:Casa_sobre_pilotes_en_la_Ci%C3%A9naga_Grande_de_Santa_Marta_Colombia.jpeg#/media/File:Casa_sobre_pilotes_en_la_Ci%C3%A9naga_Grande_de_Santa_Marta_Colombia.jpeg</t>
-  </si>
-  <si>
-    <t>Foto salto de tequendama CREDITO: By Petruss (Own work) [CC BY-SA 3.0 (http://creativecommons.org/licenses/by-sa/3.0)], via Wikimedia Commons</t>
-  </si>
-  <si>
-    <t>CREDITO: «Mapa de Colombia (parques naturales)» de Shadowxfox - Trabajo propio. Disponible bajo la licencia CC BY-SA 4.0 vía Wikimedia Commons - http://commons.wikimedia.org/wiki/File:Mapa_de_Colombia_(parques_naturales).svg#/media/File:Mapa_de_Colombia_(parques_naturales).svg</t>
-  </si>
 </sst>
 </file>
 
@@ -836,7 +814,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -883,6 +861,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
     </font>
@@ -1516,7 +1499,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1568,61 +1551,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1665,6 +1599,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1683,11 +1620,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1705,7 +1645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1726,49 +1666,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1789,74 +1729,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1865,13 +1805,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1888,16 +1828,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1906,22 +1846,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1951,26 +1891,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="52">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -2022,55 +1950,6 @@
     <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -2159,13 +2038,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2178,7 +2057,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2186,6 +2065,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2198,15 +2091,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2219,7 +2112,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2227,6 +2120,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2241,13 +2148,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2260,7 +2167,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2268,6 +2175,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2282,13 +2203,13 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2301,7 +2222,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2309,6 +2230,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2321,13 +2256,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
+          <xdr:colOff>1038225</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -2342,7 +2277,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2350,6 +2285,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2362,13 +2311,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1054100</xdr:colOff>
+          <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>863600</xdr:colOff>
+          <xdr:colOff>866775</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -2383,7 +2332,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2391,6 +2340,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2403,7 +2366,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2424,7 +2387,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2432,6 +2395,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2764,119 +2741,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="26" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.83203125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="29.625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="14" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="F2" s="88" t="s">
+      <c r="D2" s="98"/>
+      <c r="F2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="97">
+      <c r="C3" s="99">
         <v>6</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="F3" s="90">
+      <c r="D3" s="100"/>
+      <c r="F3" s="92">
         <v>42119</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="100"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="102"/>
+      <c r="D5" s="104"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="41" t="str">
+      <c r="F5" s="43" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v/>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="65"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2884,20 +2861,20 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="30" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="29" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="1"/>
@@ -2907,18 +2884,18 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="92" t="s">
+      <c r="F8" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="94"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="96"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2927,55 +2904,55 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="14.25" thickBot="1">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A10" s="68" t="s">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="69">
+      <c r="B10" s="71">
         <v>239012698</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F10" s="14" t="str">
@@ -2994,25 +2971,25 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J10" s="83" t="s">
+      <c r="J10" s="85" t="s">
         <v>162</v>
       </c>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="69">
+      <c r="B11" s="71">
         <v>98198936</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F11" s="14" t="str">
@@ -3031,25 +3008,25 @@
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J11" s="75" t="s">
+      <c r="J11" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="K11" s="80"/>
-    </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1">
+      <c r="K11" s="82"/>
+    </row>
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="72">
+      <c r="B12" s="74">
         <v>114745942</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F12" s="14" t="str">
@@ -3068,25 +3045,25 @@
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="75" t="s">
+      <c r="J12" s="77" t="s">
         <v>164</v>
       </c>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F13" s="14" t="str">
@@ -3105,25 +3082,25 @@
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J13" s="76" t="s">
+      <c r="J13" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="K13" s="82"/>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1">
+      <c r="K13" s="84"/>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B14" s="86">
         <v>54850030</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F14" s="14" t="str">
@@ -3142,25 +3119,25 @@
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J14" s="75" t="s">
+      <c r="J14" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="K14" s="80"/>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1">
+      <c r="K14" s="82"/>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B15" s="84">
+      <c r="B15" s="86">
         <v>177840059</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="70" t="s">
+      <c r="D15" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F15" s="14" t="str">
@@ -3179,25 +3156,25 @@
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="75" t="s">
+      <c r="J15" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="K15" s="82"/>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="73" customHeight="1">
+      <c r="K15" s="84"/>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="70" t="s">
+      <c r="D16" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F16" s="14" t="str">
@@ -3216,27 +3193,25 @@
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="77" t="s">
+      <c r="J16" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="K16" s="81" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="17.25" customHeight="1">
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="84">
+      <c r="B17" s="86">
         <v>61776652</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F17" s="14" t="str">
@@ -3255,25 +3230,25 @@
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="78" t="s">
+      <c r="J17" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B18" s="84">
+      <c r="B18" s="86">
         <v>129772079</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F18" s="14" t="str">
@@ -3292,25 +3267,25 @@
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J18" s="78" t="s">
+      <c r="J18" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="84">
-        <v>129772079</v>
-      </c>
-      <c r="C19" s="70" t="s">
+      <c r="B19" s="86">
+        <v>121661563</v>
+      </c>
+      <c r="C19" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F19" s="14" t="str">
@@ -3329,25 +3304,25 @@
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J19" s="121" t="s">
+      <c r="J19" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="K19" s="81"/>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="71" customHeight="1">
+      <c r="K19" s="83"/>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="70" t="s">
+      <c r="E20" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F20" s="14" t="str">
@@ -3366,27 +3341,25 @@
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J20" s="75" t="s">
+      <c r="J20" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="K20" s="82" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="68" t="s">
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="B21" s="84">
+      <c r="B21" s="86">
         <v>204676402</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="70" t="s">
+      <c r="D21" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F21" s="14" t="str">
@@ -3405,25 +3378,25 @@
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="78" t="s">
+      <c r="J21" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="67" customHeight="1">
-      <c r="A22" s="68" t="s">
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="70" t="s">
+      <c r="D22" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="70" t="s">
+      <c r="E22" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F22" s="14" t="str">
@@ -3442,27 +3415,25 @@
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J22" s="79" t="s">
+      <c r="J22" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="K22" s="123" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="68" t="s">
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F23" s="14" t="str">
@@ -3481,27 +3452,25 @@
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J23" s="75" t="s">
+      <c r="J23" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="K23" s="82" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="68" t="s">
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="84">
+      <c r="B24" s="86">
         <v>246302905</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="70" t="s">
+      <c r="D24" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F24" s="14" t="str">
@@ -3520,25 +3489,25 @@
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J24" s="70" t="s">
+      <c r="J24" s="72" t="s">
         <v>195</v>
       </c>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="68" t="s">
+    <row r="25" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="B25" s="122" t="s">
+      <c r="B25" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F25" s="14" t="str">
@@ -3557,27 +3526,27 @@
         <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J25" s="70" t="s">
+      <c r="J25" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="K25" s="75" t="s">
+      <c r="K25" s="77" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="68" t="s">
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="B26" s="74">
+      <c r="B26" s="76">
         <v>70182970</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="70" t="s">
+      <c r="D26" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F26" s="14" t="str">
@@ -3596,26 +3565,26 @@
         <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J26" s="70" t="s">
+      <c r="J26" s="72" t="s">
         <v>198</v>
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="68" t="s">
+    <row r="27" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="25">
         <v>69126064</v>
       </c>
-      <c r="C27" s="24" t="str">
+      <c r="C27" s="25" t="str">
         <f t="shared" ref="C27:C74" si="2">IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D27" s="70" t="s">
+      <c r="D27" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F27" s="14" t="str">
@@ -3634,26 +3603,26 @@
         <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J27" s="75" t="s">
+      <c r="J27" s="77" t="s">
         <v>199</v>
       </c>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="68" t="s">
+    <row r="28" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="25">
         <v>188407517</v>
       </c>
-      <c r="C28" s="24" t="str">
+      <c r="C28" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="70" t="s">
+      <c r="E28" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F28" s="14" t="str">
@@ -3672,26 +3641,26 @@
         <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J28" s="75" t="s">
+      <c r="J28" s="77" t="s">
         <v>200</v>
       </c>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A29" s="68" t="s">
+    <row r="29" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="25">
         <v>91801163</v>
       </c>
-      <c r="C29" s="24" t="str">
+      <c r="C29" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F29" s="14" t="str">
@@ -3710,26 +3679,26 @@
         <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J29" s="75" t="s">
+      <c r="J29" s="77" t="s">
         <v>201</v>
       </c>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A30" s="68" t="s">
+    <row r="30" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="25">
         <v>110972186</v>
       </c>
-      <c r="C30" s="24" t="str">
+      <c r="C30" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D30" s="70" t="s">
+      <c r="D30" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="70" t="s">
+      <c r="E30" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F30" s="14" t="str">
@@ -3748,26 +3717,26 @@
         <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J30" s="75" t="s">
+      <c r="J30" s="77" t="s">
         <v>202</v>
       </c>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A31" s="68" t="s">
+    <row r="31" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="25">
         <v>242104564</v>
       </c>
-      <c r="C31" s="24" t="str">
+      <c r="C31" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D31" s="70" t="s">
+      <c r="D31" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F31" s="14" t="str">
@@ -3786,26 +3755,26 @@
         <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J31" s="75" t="s">
+      <c r="J31" s="77" t="s">
         <v>203</v>
       </c>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" ht="45" customHeight="1">
-      <c r="A32" s="68" t="s">
+    <row r="32" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="25">
         <v>127699520</v>
       </c>
-      <c r="C32" s="24" t="str">
+      <c r="C32" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D32" s="70" t="s">
+      <c r="D32" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E32" s="70" t="s">
+      <c r="E32" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F32" s="14" t="str">
@@ -3824,28 +3793,26 @@
         <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J32" s="75" t="s">
+      <c r="J32" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="K32" s="82" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A33" s="68" t="s">
+      <c r="K32" s="19"/>
+    </row>
+    <row r="33" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="87" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="24" t="str">
+      <c r="C33" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D33" s="70" t="s">
+      <c r="D33" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F33" s="14" t="str">
@@ -3864,26 +3831,26 @@
         <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J33" s="75" t="s">
+      <c r="J33" s="77" t="s">
         <v>205</v>
       </c>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A34" s="68" t="s">
+    <row r="34" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="25">
         <v>58283212</v>
       </c>
-      <c r="C34" s="24" t="str">
+      <c r="C34" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D34" s="70" t="s">
+      <c r="D34" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="70" t="s">
+      <c r="E34" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F34" s="14" t="str">
@@ -3902,26 +3869,26 @@
         <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J34" s="75" t="s">
+      <c r="J34" s="77" t="s">
         <v>207</v>
       </c>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A35" s="68" t="s">
+    <row r="35" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="25">
         <v>213694624</v>
       </c>
-      <c r="C35" s="24" t="str">
+      <c r="C35" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D35" s="70" t="s">
+      <c r="D35" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F35" s="14" t="str">
@@ -3940,26 +3907,26 @@
         <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J35" s="70" t="s">
+      <c r="J35" s="72" t="s">
         <v>208</v>
       </c>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" ht="32" customHeight="1">
-      <c r="A36" s="68" t="s">
+    <row r="36" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="85" t="s">
+      <c r="B36" s="87" t="s">
         <v>210</v>
       </c>
-      <c r="C36" s="24" t="str">
+      <c r="C36" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D36" s="70" t="s">
+      <c r="D36" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E36" s="70" t="s">
+      <c r="E36" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F36" s="14" t="str">
@@ -3978,28 +3945,26 @@
         <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J36" s="70" t="s">
+      <c r="J36" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="K36" s="80" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A37" s="68" t="s">
+      <c r="K36" s="15"/>
+    </row>
+    <row r="37" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="25">
         <v>182591300</v>
       </c>
-      <c r="C37" s="24" t="str">
+      <c r="C37" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D37" s="70" t="s">
+      <c r="D37" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="70" t="s">
+      <c r="E37" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F37" s="14" t="str">
@@ -4018,26 +3983,26 @@
         <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J37" s="86" t="s">
+      <c r="J37" s="88" t="s">
         <v>223</v>
       </c>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="68" t="s">
+    <row r="38" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="C38" s="24" t="str">
+      <c r="C38" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D38" s="70" t="s">
+      <c r="D38" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E38" s="70" t="s">
+      <c r="E38" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F38" s="14" t="str">
@@ -4056,26 +4021,26 @@
         <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J38" s="42" t="s">
+      <c r="J38" s="44" t="s">
         <v>224</v>
       </c>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A39" s="68" t="s">
+    <row r="39" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="25">
         <v>166229555</v>
       </c>
-      <c r="C39" s="24" t="str">
+      <c r="C39" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D39" s="70" t="s">
+      <c r="D39" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E39" s="70" t="s">
+      <c r="E39" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F39" s="14" t="str">
@@ -4094,26 +4059,26 @@
         <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J39" s="70" t="s">
+      <c r="J39" s="72" t="s">
         <v>226</v>
       </c>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="68" t="s">
+    <row r="40" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="25">
         <v>70270159</v>
       </c>
-      <c r="C40" s="24" t="str">
+      <c r="C40" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D40" s="70" t="s">
+      <c r="D40" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E40" s="70" t="s">
+      <c r="E40" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F40" s="14" t="str">
@@ -4132,26 +4097,26 @@
         <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J40" s="70" t="s">
+      <c r="J40" s="72" t="s">
         <v>227</v>
       </c>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="68" t="s">
+    <row r="41" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="25">
         <v>252491596</v>
       </c>
-      <c r="C41" s="24" t="str">
+      <c r="C41" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D41" s="70" t="s">
+      <c r="D41" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F41" s="14" t="str">
@@ -4170,26 +4135,26 @@
         <f>IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J41" s="70" t="s">
+      <c r="J41" s="72" t="s">
         <v>228</v>
       </c>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="68" t="s">
+    <row r="42" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="25">
         <v>223580635</v>
       </c>
-      <c r="C42" s="24" t="str">
+      <c r="C42" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D42" s="70" t="s">
+      <c r="D42" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="70" t="s">
+      <c r="E42" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F42" s="14" t="str">
@@ -4208,26 +4173,26 @@
         <f>IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J42" s="70" t="s">
+      <c r="J42" s="72" t="s">
         <v>229</v>
       </c>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="68" t="s">
+    <row r="43" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="25">
         <v>182923085</v>
       </c>
-      <c r="C43" s="24" t="str">
+      <c r="C43" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D43" s="70" t="s">
+      <c r="D43" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E43" s="70" t="s">
+      <c r="E43" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F43" s="14" t="str">
@@ -4246,26 +4211,26 @@
         <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J43" s="70" t="s">
+      <c r="J43" s="72" t="s">
         <v>230</v>
       </c>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" ht="48" customHeight="1">
-      <c r="A44" s="68" t="s">
+    <row r="44" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="B44" s="85" t="s">
+      <c r="B44" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="C44" s="24" t="str">
+      <c r="C44" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D44" s="70" t="s">
+      <c r="D44" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="70" t="s">
+      <c r="E44" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F44" s="14" t="str">
@@ -4284,28 +4249,26 @@
         <f>IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J44" s="70" t="s">
+      <c r="J44" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="K44" s="124" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A45" s="68" t="s">
+      <c r="K44" s="15"/>
+    </row>
+    <row r="45" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="25">
         <v>95174215</v>
       </c>
-      <c r="C45" s="24" t="str">
+      <c r="C45" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D45" s="70" t="s">
+      <c r="D45" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="70" t="s">
+      <c r="E45" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F45" s="14" t="str">
@@ -4324,26 +4287,26 @@
         <f>IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J45" s="70" t="s">
+      <c r="J45" s="72" t="s">
         <v>233</v>
       </c>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A46" s="68" t="s">
+    <row r="46" spans="1:11" s="12" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="C46" s="24" t="str">
+      <c r="C46" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D46" s="70" t="s">
+      <c r="D46" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E46" s="70" t="s">
+      <c r="E46" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F46" s="14" t="str">
@@ -4362,28 +4325,28 @@
         <f>IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J46" s="70" t="s">
+      <c r="J46" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="K46" s="75" t="s">
+      <c r="K46" s="77" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" ht="74" customHeight="1">
-      <c r="A47" s="68" t="s">
+    <row r="47" spans="1:11" s="12" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="C47" s="24" t="str">
+      <c r="C47" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D47" s="70" t="s">
+      <c r="D47" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E47" s="70" t="s">
+      <c r="E47" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F47" s="14" t="str">
@@ -4402,28 +4365,26 @@
         <f>IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J47" s="70" t="s">
+      <c r="J47" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="K47" s="80" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="68" t="s">
+      <c r="K47" s="15"/>
+    </row>
+    <row r="48" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="70" t="s">
         <v>239</v>
       </c>
       <c r="B48" s="13">
         <v>167219486</v>
       </c>
-      <c r="C48" s="24" t="str">
+      <c r="C48" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D48" s="70" t="s">
+      <c r="D48" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="70" t="s">
+      <c r="E48" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F48" s="14" t="str">
@@ -4442,26 +4403,26 @@
         <f>IF(OR(B48&lt;&gt;"",J48&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J48" s="70" t="s">
+      <c r="J48" s="72" t="s">
         <v>240</v>
       </c>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" ht="64" customHeight="1">
-      <c r="A49" s="68" t="s">
+    <row r="49" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="B49" s="87" t="s">
+      <c r="B49" s="89" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="24" t="str">
+      <c r="C49" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D49" s="70" t="s">
+      <c r="D49" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E49" s="70" t="s">
+      <c r="E49" s="72" t="s">
         <v>147</v>
       </c>
       <c r="F49" s="14" t="str">
@@ -4480,17 +4441,15 @@
         <f>IF(OR(B49&lt;&gt;"",J49&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J49" s="70" t="s">
+      <c r="J49" s="72" t="s">
         <v>242</v>
       </c>
-      <c r="K49" s="124" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="K49" s="15"/>
+    </row>
+    <row r="50" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
-      <c r="C50" s="24" t="str">
+      <c r="C50" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4515,10 +4474,10 @@
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="51" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
-      <c r="C51" s="24" t="str">
+      <c r="C51" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4543,10 +4502,10 @@
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="52" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
-      <c r="C52" s="24" t="str">
+      <c r="C52" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4571,10 +4530,10 @@
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="53" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
-      <c r="C53" s="24" t="str">
+      <c r="C53" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4599,10 +4558,10 @@
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="54" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="24" t="str">
+      <c r="C54" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4627,10 +4586,10 @@
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="55" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
-      <c r="C55" s="24" t="str">
+      <c r="C55" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4655,10 +4614,10 @@
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="56" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
-      <c r="C56" s="24" t="str">
+      <c r="C56" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4683,10 +4642,10 @@
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="57" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
-      <c r="C57" s="24" t="str">
+      <c r="C57" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4711,10 +4670,10 @@
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="58" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
-      <c r="C58" s="24" t="str">
+      <c r="C58" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4739,10 +4698,10 @@
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="59" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
-      <c r="C59" s="24" t="str">
+      <c r="C59" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4767,10 +4726,10 @@
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="60" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
-      <c r="C60" s="24" t="str">
+      <c r="C60" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4795,13 +4754,13 @@
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="61" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="str">
         <f t="shared" ref="A61:A83" si="3">IF(OR(B61&lt;&gt;"",J61&lt;&gt;""),CONCATENATE(LEFT(A60,3),IF(MID(A60,4,2)+1&lt;10,CONCATENATE("0",MID(A60,4,2)+1),MID(A60,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B61" s="13"/>
-      <c r="C61" s="24" t="str">
+      <c r="C61" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4826,13 +4785,13 @@
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="62" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B62" s="13"/>
-      <c r="C62" s="24" t="str">
+      <c r="C62" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4857,13 +4816,13 @@
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="63" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B63" s="13"/>
-      <c r="C63" s="24" t="str">
+      <c r="C63" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4888,13 +4847,13 @@
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="64" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B64" s="13"/>
-      <c r="C64" s="24" t="str">
+      <c r="C64" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4919,13 +4878,13 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="65" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B65" s="13"/>
-      <c r="C65" s="24" t="str">
+      <c r="C65" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4950,13 +4909,13 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="66" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B66" s="13"/>
-      <c r="C66" s="24" t="str">
+      <c r="C66" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4981,13 +4940,13 @@
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="67" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B67" s="13"/>
-      <c r="C67" s="24" t="str">
+      <c r="C67" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5012,13 +4971,13 @@
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="68" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B68" s="13"/>
-      <c r="C68" s="24" t="str">
+      <c r="C68" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5043,13 +5002,13 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B69" s="13"/>
-      <c r="C69" s="24" t="str">
+      <c r="C69" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5074,13 +5033,13 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B70" s="13"/>
-      <c r="C70" s="24" t="str">
+      <c r="C70" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5105,13 +5064,13 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B71" s="13"/>
-      <c r="C71" s="24" t="str">
+      <c r="C71" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5136,13 +5095,13 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B72" s="13"/>
-      <c r="C72" s="24" t="str">
+      <c r="C72" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5167,13 +5126,13 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B73" s="13"/>
-      <c r="C73" s="24" t="str">
+      <c r="C73" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5198,13 +5157,13 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B74" s="13"/>
-      <c r="C74" s="24" t="str">
+      <c r="C74" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5229,13 +5188,13 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B75" s="13"/>
-      <c r="C75" s="24" t="str">
+      <c r="C75" s="25" t="str">
         <f t="shared" ref="C75:C108" si="4">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
@@ -5260,13 +5219,13 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B76" s="13"/>
-      <c r="C76" s="24" t="str">
+      <c r="C76" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5291,13 +5250,13 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B77" s="13"/>
-      <c r="C77" s="24" t="str">
+      <c r="C77" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5322,13 +5281,13 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B78" s="13"/>
-      <c r="C78" s="24" t="str">
+      <c r="C78" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5353,13 +5312,13 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B79" s="13"/>
-      <c r="C79" s="24" t="str">
+      <c r="C79" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5384,13 +5343,13 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B80" s="13"/>
-      <c r="C80" s="24" t="str">
+      <c r="C80" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5415,13 +5374,13 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B81" s="13"/>
-      <c r="C81" s="24" t="str">
+      <c r="C81" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5446,13 +5405,13 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B82" s="13"/>
-      <c r="C82" s="24" t="str">
+      <c r="C82" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5477,13 +5436,13 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B83" s="13"/>
-      <c r="C83" s="24" t="str">
+      <c r="C83" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5508,13 +5467,13 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="str">
         <f t="shared" ref="A84:A108" si="7">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B84" s="13"/>
-      <c r="C84" s="24" t="str">
+      <c r="C84" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5539,13 +5498,13 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B85" s="13"/>
-      <c r="C85" s="24" t="str">
+      <c r="C85" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5570,13 +5529,13 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B86" s="13"/>
-      <c r="C86" s="24" t="str">
+      <c r="C86" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5601,13 +5560,13 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B87" s="13"/>
-      <c r="C87" s="24" t="str">
+      <c r="C87" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5632,13 +5591,13 @@
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B88" s="13"/>
-      <c r="C88" s="24" t="str">
+      <c r="C88" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5663,13 +5622,13 @@
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B89" s="13"/>
-      <c r="C89" s="24" t="str">
+      <c r="C89" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5694,13 +5653,13 @@
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B90" s="13"/>
-      <c r="C90" s="24" t="str">
+      <c r="C90" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5725,13 +5684,13 @@
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B91" s="13"/>
-      <c r="C91" s="24" t="str">
+      <c r="C91" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5756,13 +5715,13 @@
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B92" s="13"/>
-      <c r="C92" s="24" t="str">
+      <c r="C92" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5787,13 +5746,13 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B93" s="13"/>
-      <c r="C93" s="24" t="str">
+      <c r="C93" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5818,13 +5777,13 @@
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B94" s="13"/>
-      <c r="C94" s="24" t="str">
+      <c r="C94" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5849,13 +5808,13 @@
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B95" s="13"/>
-      <c r="C95" s="24" t="str">
+      <c r="C95" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5880,13 +5839,13 @@
       <c r="J95" s="14"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B96" s="13"/>
-      <c r="C96" s="24" t="str">
+      <c r="C96" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5911,13 +5870,13 @@
       <c r="J96" s="14"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B97" s="13"/>
-      <c r="C97" s="24" t="str">
+      <c r="C97" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5942,13 +5901,13 @@
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B98" s="13"/>
-      <c r="C98" s="24" t="str">
+      <c r="C98" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5973,13 +5932,13 @@
       <c r="J98" s="14"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B99" s="13"/>
-      <c r="C99" s="24" t="str">
+      <c r="C99" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6004,13 +5963,13 @@
       <c r="J99" s="14"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B100" s="13"/>
-      <c r="C100" s="24" t="str">
+      <c r="C100" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6035,13 +5994,13 @@
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B101" s="13"/>
-      <c r="C101" s="24" t="str">
+      <c r="C101" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6066,13 +6025,13 @@
       <c r="J101" s="14"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B102" s="13"/>
-      <c r="C102" s="24" t="str">
+      <c r="C102" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6097,13 +6056,13 @@
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B103" s="13"/>
-      <c r="C103" s="24" t="str">
+      <c r="C103" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6128,13 +6087,13 @@
       <c r="J103" s="14"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B104" s="13"/>
-      <c r="C104" s="24" t="str">
+      <c r="C104" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6159,13 +6118,13 @@
       <c r="J104" s="14"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B105" s="13"/>
-      <c r="C105" s="24" t="str">
+      <c r="C105" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6190,13 +6149,13 @@
       <c r="J105" s="14"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B106" s="13"/>
-      <c r="C106" s="24" t="str">
+      <c r="C106" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6221,13 +6180,13 @@
       <c r="J106" s="14"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="107" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B107" s="13"/>
-      <c r="C107" s="24" t="str">
+      <c r="C107" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6252,13 +6211,13 @@
       <c r="J107" s="14"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="108" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B108" s="13"/>
-      <c r="C108" s="24" t="str">
+      <c r="C108" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6346,7 +6305,7 @@
     <hyperlink ref="B49" r:id="rId9" location="/media/File:Mapa_de_Colombia_(parques_naturales).svg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId10"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6357,548 +6316,548 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.1640625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="26"/>
-    <col min="3" max="3" width="13.83203125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="26" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="26"/>
-    <col min="8" max="11" width="11" style="26" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="26"/>
+    <col min="1" max="1" width="72.125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="28"/>
+    <col min="3" max="3" width="13.875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="28" customWidth="1"/>
+    <col min="5" max="7" width="10.875" style="28"/>
+    <col min="8" max="11" width="11" style="28" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="107"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="109"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="108" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="36"/>
-    </row>
-    <row r="3" spans="1:11" ht="63">
-      <c r="A3" s="37" t="s">
+      <c r="D2" s="111"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="114" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="36"/>
-      <c r="H3" s="26" t="s">
+      <c r="D3" s="117"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="38"/>
+      <c r="H3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="H4" s="26" t="s">
+      <c r="F4" s="38"/>
+      <c r="H4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="28">
         <v>1</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="117" t="str">
+      <c r="D5" s="119" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="118"/>
-      <c r="F5" s="36"/>
-      <c r="H5" s="26" t="s">
+      <c r="E5" s="120"/>
+      <c r="F5" s="38"/>
+      <c r="H5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="28">
         <v>2</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="H6" s="26" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="H6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="28">
         <v>3</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="28">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="66" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="103" t="str">
+      <c r="D7" s="105" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="104"/>
-      <c r="H7" s="26" t="s">
+      <c r="E7" s="105"/>
+      <c r="F7" s="106"/>
+      <c r="H7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="28">
         <v>4</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="28">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="I8" s="26" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="I8" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="28">
         <v>5</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="28">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-      <c r="I9" s="26" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="I9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="28">
         <v>6</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="28">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="I10" s="26" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="I10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="28">
         <v>7</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="28">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="I11" s="26" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="28">
         <v>8</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1">
-      <c r="I12" s="26" t="s">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="28">
         <v>9</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="28">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="105" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="107"/>
-      <c r="I13" s="26" t="s">
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="109"/>
+      <c r="I13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="28">
         <v>10</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="I14" s="26" t="s">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="I14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="28">
         <v>11</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="28">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="108" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="110"/>
-      <c r="J15" s="26">
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
+      <c r="J15" s="28">
         <v>12</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="28">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.25" customHeight="1">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:11" ht="67.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="28">
         <v>13</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="28">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A17" s="34" t="s">
+    <row r="17" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="32" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="111" t="str">
+      <c r="D17" s="113" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="112"/>
-      <c r="F17" s="113"/>
-      <c r="J17" s="26">
+      <c r="E17" s="114"/>
+      <c r="F17" s="115"/>
+      <c r="J17" s="28">
         <v>14</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="28">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="66" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="103" t="str">
+      <c r="D18" s="105" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="104"/>
-      <c r="J18" s="26">
+      <c r="E18" s="105"/>
+      <c r="F18" s="106"/>
+      <c r="J18" s="28">
         <v>15</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="28">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="34" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="H19" s="26">
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="H19" s="28">
         <v>3</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="28">
         <v>16</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="28">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1">
-      <c r="A20" s="38" t="s">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="H20" s="26">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="H20" s="28">
         <v>4</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="28">
         <v>5</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="28">
         <v>4</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="28">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="H21" s="26" t="str">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H21" s="28" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
       </c>
-      <c r="I21" s="26" t="str">
+      <c r="I21" s="28" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>07</v>
       </c>
-      <c r="J21" s="26" t="str">
+      <c r="J21" s="28" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>04</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="28">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="K22" s="26">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="28">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="K23" s="26">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="28">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="K24" s="26">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="28">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="K25" s="26">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="28">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="K26" s="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="28">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="K27" s="26">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="28">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="K28" s="26">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="K29" s="26">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="28">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="K30" s="26">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="28">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="K31" s="26">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="28">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="K32" s="26">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="28">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11">
-      <c r="K33" s="26">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="28">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
-      <c r="K34" s="26">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="28">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11">
-      <c r="K35" s="26">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="28">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11">
-      <c r="K36" s="26">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="28">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11">
-      <c r="K37" s="26">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="28">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11">
-      <c r="K38" s="26">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="28">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
-      <c r="K39" s="26">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="28">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11">
-      <c r="K40" s="26">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="28">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
-      <c r="K41" s="26">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="28">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11">
-      <c r="K42" s="26">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="28">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11">
-      <c r="K43" s="26">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="28">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11">
-      <c r="K44" s="26">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11">
-      <c r="K45" s="26" t="str">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="28" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -6931,19 +6890,18 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6952,21 +6910,20 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6977,19 +6934,18 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -7000,19 +6956,18 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -7021,13 +6976,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -7035,7 +6990,6 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -7044,13 +6998,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1054100</xdr:colOff>
+                    <xdr:colOff>1057275</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>863600</xdr:colOff>
+                    <xdr:colOff>866775</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -7058,7 +7012,6 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -7067,7 +7020,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7081,11 +7034,9 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7104,564 +7055,564 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="26" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="26"/>
-    <col min="5" max="5" width="11.6640625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="11" style="26" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="26" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="26" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="26" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="26" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="26"/>
+    <col min="1" max="1" width="21" style="28" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="28"/>
+    <col min="5" max="5" width="11.625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="11" style="28" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="28" customWidth="1"/>
+    <col min="9" max="9" width="22.125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="28" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="H1" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="45" t="s">
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="47" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="47" customFormat="1">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46" t="s">
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-    </row>
-    <row r="4" spans="1:11" s="47" customFormat="1">
-      <c r="A4" s="48" t="s">
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+    </row>
+    <row r="4" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48" t="s">
+      <c r="G4" s="50"/>
+      <c r="H4" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="48"/>
-    </row>
-    <row r="5" spans="1:11" s="47" customFormat="1">
-      <c r="A5" s="49" t="s">
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="48" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="50"/>
-    </row>
-    <row r="6" spans="1:11" s="47" customFormat="1">
-      <c r="A6" s="48" t="s">
+      <c r="J5" s="52"/>
+    </row>
+    <row r="6" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="50" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="47" customFormat="1" ht="25.5">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:11" s="49" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48" t="s">
+      <c r="G7" s="50"/>
+      <c r="H7" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="48"/>
-    </row>
-    <row r="8" spans="1:11" s="47" customFormat="1" ht="25.5">
-      <c r="A8" s="48" t="s">
+      <c r="J7" s="50"/>
+    </row>
+    <row r="8" spans="1:11" s="49" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48" t="s">
+      <c r="G8" s="50"/>
+      <c r="H8" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="48"/>
-    </row>
-    <row r="9" spans="1:11" s="47" customFormat="1">
-      <c r="A9" s="48" t="s">
+      <c r="J8" s="50"/>
+    </row>
+    <row r="9" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48" t="s">
+      <c r="G9" s="50"/>
+      <c r="H9" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="J9" s="48"/>
-    </row>
-    <row r="10" spans="1:11" s="47" customFormat="1">
-      <c r="A10" s="48" t="s">
+      <c r="J9" s="50"/>
+    </row>
+    <row r="10" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48" t="s">
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="48"/>
-    </row>
-    <row r="11" spans="1:11" s="47" customFormat="1" ht="25.5">
-      <c r="A11" s="48" t="s">
+      <c r="J10" s="50"/>
+    </row>
+    <row r="11" spans="1:11" s="49" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48" t="s">
+      <c r="G11" s="50"/>
+      <c r="H11" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="J11" s="48"/>
-    </row>
-    <row r="12" spans="1:11" s="47" customFormat="1">
-      <c r="A12" s="48" t="s">
+      <c r="J11" s="50"/>
+    </row>
+    <row r="12" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48" t="s">
+      <c r="G12" s="50"/>
+      <c r="H12" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="48"/>
-    </row>
-    <row r="13" spans="1:11" ht="63">
-      <c r="A13" s="51" t="s">
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53" t="s">
+      <c r="E13" s="54"/>
+      <c r="F13" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48" t="s">
+      <c r="G13" s="53"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="26" t="s">
+      <c r="J13" s="53"/>
+      <c r="K13" s="28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="51" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53" t="s">
+      <c r="E14" s="54"/>
+      <c r="F14" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48" t="s">
+      <c r="G14" s="53"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="51"/>
-    </row>
-    <row r="15" spans="1:11" ht="31.5">
-      <c r="A15" s="51" t="s">
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="48" t="s">
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="26" t="s">
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="28" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5">
-      <c r="A16" s="53" t="s">
+    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="49" t="s">
+      <c r="B16" s="55"/>
+      <c r="C16" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="52" t="s">
+      <c r="F16" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53" t="s">
+      <c r="G16" s="54"/>
+      <c r="H16" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="52"/>
-      <c r="K16" s="54" t="s">
+      <c r="J16" s="54"/>
+      <c r="K16" s="56" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5">
-      <c r="A17" s="48" t="s">
+    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="55" t="s">
+      <c r="G17" s="50"/>
+      <c r="H17" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="48"/>
-      <c r="K17" s="56" t="s">
+      <c r="J17" s="50"/>
+      <c r="K17" s="58" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="57" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="58" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="61" t="s">
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="61" t="s">
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-    </row>
-    <row r="24" spans="1:11" ht="31.5">
-      <c r="A24" s="61" t="s">
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+    </row>
+    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="61" t="s">
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-    </row>
-    <row r="26" spans="1:11" ht="63">
-      <c r="A26" s="61" t="s">
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+    </row>
+    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/fuentes/contenidos/grado06/guion08/SolicitudGrafica_CN_06_08_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion08/SolicitudGrafica_CN_06_08_CO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="254">
   <si>
     <t>Fecha:</t>
   </si>
@@ -827,6 +827,9 @@
   </si>
   <si>
     <t>CREDITO: «Mapa de Colombia (parques naturales)» de Shadowxfox - Trabajo propio. Disponible bajo la licencia CC BY-SA 4.0 vía Wikimedia Commons - http://commons.wikimedia.org/wiki/File:Mapa_de_Colombia_(parques_naturales).svg#/media/File:Mapa_de_Colombia_(parques_naturales).svg</t>
+  </si>
+  <si>
+    <t>CREDITO:Para Uso editorial exclusivamente   &lt;a href="http://www.shutterstock.com/gallery-351214p1.html?cr=00&amp;pl=edit-00"&gt;Michaelpuche&lt;/a&gt; / &lt;a href="http://www.shutterstock.com/editorial?cr=00&amp;pl=edit-00"&gt;Shutterstock.com&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1519,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1572,6 +1575,9 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1859,6 +1865,18 @@
     <xf numFmtId="1" fontId="21" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1957,20 +1975,8 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="104">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -2071,6 +2077,9 @@
     <cellStyle name="Hipervínculo visitado" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="99" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="103" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -2767,8 +2776,8 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2789,7 +2798,7 @@
     <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+    <row r="1" spans="1:16" ht="16" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2801,49 +2810,49 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="F2" s="88" t="s">
+      <c r="D2" s="100"/>
+      <c r="F2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="89"/>
+      <c r="G2" s="93"/>
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="97">
+      <c r="C3" s="101">
         <v>6</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="F3" s="90">
+      <c r="D3" s="102"/>
+      <c r="F3" s="94">
         <v>42119</v>
       </c>
-      <c r="G3" s="91"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5">
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="100"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="5"/>
       <c r="F4" s="43" t="s">
         <v>55</v>
@@ -2856,15 +2865,15 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1">
+    <row r="5" spans="1:16" ht="16" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="102"/>
+      <c r="D5" s="106"/>
       <c r="E5" s="5"/>
       <c r="F5" s="41" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2876,7 +2885,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1">
+    <row r="6" spans="1:16" ht="16" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2907,18 +2916,18 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16" thickBot="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="92" t="s">
+      <c r="F8" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="94"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="98"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2927,7 +2936,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="14.25" thickBot="1">
+    <row r="9" spans="1:16" ht="14" thickBot="1">
       <c r="A9" s="25" t="s">
         <v>2</v>
       </c>
@@ -3329,7 +3338,7 @@
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J19" s="121" t="s">
+      <c r="J19" s="88" t="s">
         <v>173</v>
       </c>
       <c r="K19" s="81"/>
@@ -3445,7 +3454,7 @@
       <c r="J22" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="K22" s="123" t="s">
+      <c r="K22" s="90" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3529,7 +3538,7 @@
       <c r="A25" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="B25" s="122" t="s">
+      <c r="B25" s="89" t="s">
         <v>236</v>
       </c>
       <c r="C25" s="70" t="s">
@@ -3912,7 +3921,7 @@
         <v>190</v>
       </c>
       <c r="B35" s="24">
-        <v>213694624</v>
+        <v>213964624</v>
       </c>
       <c r="C35" s="24" t="str">
         <f t="shared" si="2"/>
@@ -3943,7 +3952,9 @@
       <c r="J35" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="K35" s="15"/>
+      <c r="K35" s="80" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="36" spans="1:11" s="12" customFormat="1" ht="32" customHeight="1">
       <c r="A36" s="68" t="s">
@@ -4287,7 +4298,7 @@
       <c r="J44" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="K44" s="124" t="s">
+      <c r="K44" s="91" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4483,7 +4494,7 @@
       <c r="J49" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="K49" s="124" t="s">
+      <c r="K49" s="91" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5043,7 +5054,7 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="69" spans="1:11" s="12" customFormat="1">
       <c r="A69" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5074,7 +5085,7 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="70" spans="1:11" s="12" customFormat="1">
       <c r="A70" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5105,7 +5116,7 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="71" spans="1:11" s="12" customFormat="1">
       <c r="A71" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5136,7 +5147,7 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="72" spans="1:11" s="12" customFormat="1">
       <c r="A72" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5167,7 +5178,7 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="73" spans="1:11" s="12" customFormat="1">
       <c r="A73" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5198,7 +5209,7 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="74" spans="1:11" s="12" customFormat="1">
       <c r="A74" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5229,7 +5240,7 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="75" spans="1:11" s="12" customFormat="1">
       <c r="A75" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5260,7 +5271,7 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="76" spans="1:11" s="12" customFormat="1">
       <c r="A76" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5291,7 +5302,7 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="77" spans="1:11" s="12" customFormat="1">
       <c r="A77" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5322,7 +5333,7 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="78" spans="1:11" s="12" customFormat="1">
       <c r="A78" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5353,7 +5364,7 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="79" spans="1:11" s="12" customFormat="1">
       <c r="A79" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5384,7 +5395,7 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="80" spans="1:11" s="12" customFormat="1">
       <c r="A80" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5415,7 +5426,7 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="81" spans="1:11" s="12" customFormat="1">
       <c r="A81" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5446,7 +5457,7 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="82" spans="1:11" s="12" customFormat="1">
       <c r="A82" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5477,7 +5488,7 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="83" spans="1:11" s="12" customFormat="1">
       <c r="A83" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5508,7 +5519,7 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="84" spans="1:11" s="12" customFormat="1">
       <c r="A84" s="13" t="str">
         <f t="shared" ref="A84:A108" si="7">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
         <v/>
@@ -5539,7 +5550,7 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="85" spans="1:11" s="12" customFormat="1">
       <c r="A85" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5570,7 +5581,7 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="86" spans="1:11" s="12" customFormat="1">
       <c r="A86" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5601,7 +5612,7 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="87" spans="1:11" s="12" customFormat="1">
       <c r="A87" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5632,7 +5643,7 @@
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="88" spans="1:11" s="12" customFormat="1">
       <c r="A88" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5663,7 +5674,7 @@
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="89" spans="1:11" s="12" customFormat="1">
       <c r="A89" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5694,7 +5705,7 @@
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="90" spans="1:11" s="12" customFormat="1">
       <c r="A90" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5725,7 +5736,7 @@
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="91" spans="1:11" s="12" customFormat="1">
       <c r="A91" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5756,7 +5767,7 @@
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="92" spans="1:11" s="12" customFormat="1">
       <c r="A92" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5787,7 +5798,7 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="93" spans="1:11" s="12" customFormat="1">
       <c r="A93" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5818,7 +5829,7 @@
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="94" spans="1:11" s="12" customFormat="1">
       <c r="A94" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5849,7 +5860,7 @@
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="95" spans="1:11" s="12" customFormat="1">
       <c r="A95" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5880,7 +5891,7 @@
       <c r="J95" s="14"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="96" spans="1:11" s="12" customFormat="1">
       <c r="A96" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5911,7 +5922,7 @@
       <c r="J96" s="14"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="97" spans="1:11" s="12" customFormat="1">
       <c r="A97" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5942,7 +5953,7 @@
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="98" spans="1:11" s="12" customFormat="1">
       <c r="A98" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5973,7 +5984,7 @@
       <c r="J98" s="14"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="99" spans="1:11" s="12" customFormat="1">
       <c r="A99" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6004,7 +6015,7 @@
       <c r="J99" s="14"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="100" spans="1:11" s="12" customFormat="1">
       <c r="A100" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6035,7 +6046,7 @@
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="101" spans="1:11" s="12" customFormat="1">
       <c r="A101" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6066,7 +6077,7 @@
       <c r="J101" s="14"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="102" spans="1:11" s="12" customFormat="1">
       <c r="A102" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6097,7 +6108,7 @@
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="103" spans="1:11" s="12" customFormat="1">
       <c r="A103" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6128,7 +6139,7 @@
       <c r="J103" s="14"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="104" spans="1:11" s="12" customFormat="1">
       <c r="A104" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6159,7 +6170,7 @@
       <c r="J104" s="14"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="105" spans="1:11" s="12" customFormat="1">
       <c r="A105" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6190,7 +6201,7 @@
       <c r="J105" s="14"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="106" spans="1:11" s="12" customFormat="1">
       <c r="A106" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6221,7 +6232,7 @@
       <c r="J106" s="14"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="107" spans="1:11" s="12" customFormat="1">
       <c r="A107" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6252,7 +6263,7 @@
       <c r="J107" s="14"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="108" spans="1:11" s="12" customFormat="1">
       <c r="A108" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6375,38 +6386,38 @@
     <col min="12" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
+      <c r="A1" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="107"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="35"/>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="114"/>
       <c r="F2" s="36"/>
     </row>
-    <row r="3" spans="1:11" ht="63">
+    <row r="3" spans="1:11" ht="60">
       <c r="A3" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="35"/>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
       <c r="F3" s="36"/>
       <c r="H3" s="26" t="s">
         <v>18</v>
@@ -6421,7 +6432,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="34" t="s">
         <v>44</v>
       </c>
@@ -6449,7 +6460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1">
+    <row r="5" spans="1:11" ht="76" thickBot="1">
       <c r="A5" s="37" t="s">
         <v>45</v>
       </c>
@@ -6457,11 +6468,11 @@
       <c r="C5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="117" t="str">
+      <c r="D5" s="121" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="118"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="36"/>
       <c r="H5" s="26" t="s">
         <v>22</v>
@@ -6476,7 +6487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1">
+    <row r="6" spans="1:11" ht="31" thickBot="1">
       <c r="A6" s="34" t="s">
         <v>10</v>
       </c>
@@ -6498,7 +6509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1">
+    <row r="7" spans="1:11" ht="46" thickBot="1">
       <c r="A7" s="37" t="s">
         <v>11</v>
       </c>
@@ -6506,12 +6517,12 @@
       <c r="C7" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="103" t="str">
+      <c r="D7" s="107" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="104"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="108"/>
       <c r="H7" s="26" t="s">
         <v>24</v>
       </c>
@@ -6525,7 +6536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25">
+    <row r="8" spans="1:11" ht="45">
       <c r="A8" s="37" t="s">
         <v>53</v>
       </c>
@@ -6544,7 +6555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25">
+    <row r="9" spans="1:11" ht="45">
       <c r="A9" s="37" t="s">
         <v>12</v>
       </c>
@@ -6563,7 +6574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1">
+    <row r="10" spans="1:11" ht="31" thickBot="1">
       <c r="A10" s="38" t="s">
         <v>36</v>
       </c>
@@ -6593,7 +6604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1">
+    <row r="12" spans="1:11" ht="16" thickBot="1">
       <c r="I12" s="26" t="s">
         <v>37</v>
       </c>
@@ -6605,14 +6616,14 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="107"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="111"/>
       <c r="I13" s="26" t="s">
         <v>33</v>
       </c>
@@ -6623,7 +6634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1">
+    <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="A14" s="37"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -6645,12 +6656,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="110"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
       <c r="J15" s="26">
         <v>12</v>
       </c>
@@ -6690,12 +6701,12 @@
       <c r="C17" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="111" t="str">
+      <c r="D17" s="115" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="112"/>
-      <c r="F17" s="113"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="117"/>
       <c r="J17" s="26">
         <v>14</v>
       </c>
@@ -6703,7 +6714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1">
+    <row r="18" spans="1:11" ht="76" thickBot="1">
       <c r="A18" s="37" t="s">
         <v>48</v>
       </c>
@@ -6711,12 +6722,12 @@
       <c r="C18" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="103" t="str">
+      <c r="D18" s="107" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="104"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="108"/>
       <c r="J18" s="26">
         <v>15</v>
       </c>
@@ -6743,7 +6754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1">
+    <row r="20" spans="1:11" ht="61" thickBot="1">
       <c r="A20" s="38" t="s">
         <v>51</v>
       </c>
@@ -7121,41 +7132,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="H1" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
       <c r="H2" s="45" t="s">
         <v>65</v>
       </c>
@@ -7278,7 +7289,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="47" customFormat="1" ht="25.5">
+    <row r="7" spans="1:11" s="47" customFormat="1" ht="28">
       <c r="A7" s="48" t="s">
         <v>80</v>
       </c>
@@ -7306,7 +7317,7 @@
       </c>
       <c r="J7" s="48"/>
     </row>
-    <row r="8" spans="1:11" s="47" customFormat="1" ht="25.5">
+    <row r="8" spans="1:11" s="47" customFormat="1" ht="28">
       <c r="A8" s="48" t="s">
         <v>82</v>
       </c>
@@ -7388,7 +7399,7 @@
       </c>
       <c r="J10" s="48"/>
     </row>
-    <row r="11" spans="1:11" s="47" customFormat="1" ht="25.5">
+    <row r="11" spans="1:11" s="47" customFormat="1" ht="28">
       <c r="A11" s="48" t="s">
         <v>89</v>
       </c>
@@ -7444,7 +7455,7 @@
       </c>
       <c r="J12" s="48"/>
     </row>
-    <row r="13" spans="1:11" ht="63">
+    <row r="13" spans="1:11" ht="60">
       <c r="A13" s="51" t="s">
         <v>93</v>
       </c>
@@ -7495,7 +7506,7 @@
       </c>
       <c r="J14" s="51"/>
     </row>
-    <row r="15" spans="1:11" ht="31.5">
+    <row r="15" spans="1:11" ht="30">
       <c r="A15" s="51" t="s">
         <v>99</v>
       </c>
@@ -7522,7 +7533,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5">
+    <row r="16" spans="1:11" ht="90">
       <c r="A16" s="53" t="s">
         <v>103</v>
       </c>
@@ -7551,7 +7562,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5">
+    <row r="17" spans="1:11" ht="28">
       <c r="A17" s="48" t="s">
         <v>106</v>
       </c>
@@ -7624,7 +7635,7 @@
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
     </row>
-    <row r="24" spans="1:11" ht="31.5">
+    <row r="24" spans="1:11" ht="30">
       <c r="A24" s="61" t="s">
         <v>116</v>
       </c>
@@ -7650,7 +7661,7 @@
       <c r="D25" s="62"/>
       <c r="E25" s="62"/>
     </row>
-    <row r="26" spans="1:11" ht="63">
+    <row r="26" spans="1:11" ht="60">
       <c r="A26" s="61" t="s">
         <v>118</v>
       </c>

--- a/fuentes/contenidos/grado06/guion08/SolicitudGrafica_CN_06_08_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion08/SolicitudGrafica_CN_06_08_CO.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado06\guion08\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="660" windowWidth="35020" windowHeight="17240" tabRatio="500"/>
+    <workbookView xWindow="2175" yWindow="660" windowWidth="35025" windowHeight="17235" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -857,11 +862,13 @@
     <font>
       <sz val="10"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -883,11 +890,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -993,11 +1002,13 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2168,13 +2179,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2187,7 +2198,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2195,6 +2206,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2207,15 +2232,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2228,7 +2253,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2236,6 +2261,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2250,13 +2289,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2269,7 +2308,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2277,6 +2316,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2291,13 +2344,13 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2310,7 +2363,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2318,6 +2371,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2330,13 +2397,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
+          <xdr:colOff>1038225</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -2351,7 +2418,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2359,6 +2426,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2371,13 +2452,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1054100</xdr:colOff>
+          <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>863600</xdr:colOff>
+          <xdr:colOff>866775</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -2392,7 +2473,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2400,6 +2481,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2412,7 +2507,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2433,7 +2528,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2441,6 +2536,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2773,32 +2882,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="26" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.83203125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="29.625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="14" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16" thickBot="1">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2810,7 +2919,7 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
@@ -2827,7 +2936,7 @@
       <c r="I2" s="44"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -2844,7 +2953,7 @@
       <c r="I3" s="44"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="15">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
@@ -2865,7 +2974,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16" thickBot="1">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -2885,7 +2994,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16" thickBot="1">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2898,7 +3007,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="28" t="s">
         <v>40</v>
@@ -2916,7 +3025,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16" thickBot="1">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2936,7 +3045,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="14" thickBot="1">
+    <row r="9" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>2</v>
       </c>
@@ -2971,7 +3080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="68" t="s">
         <v>151</v>
       </c>
@@ -3008,7 +3117,7 @@
       </c>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>152</v>
       </c>
@@ -3045,7 +3154,7 @@
       </c>
       <c r="K11" s="80"/>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1">
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>153</v>
       </c>
@@ -3082,7 +3191,7 @@
       </c>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>154</v>
       </c>
@@ -3119,7 +3228,7 @@
       </c>
       <c r="K13" s="82"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1">
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>155</v>
       </c>
@@ -3156,7 +3265,7 @@
       </c>
       <c r="K14" s="80"/>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1">
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>156</v>
       </c>
@@ -3193,7 +3302,7 @@
       </c>
       <c r="K15" s="82"/>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="73" customHeight="1">
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="72.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>157</v>
       </c>
@@ -3232,7 +3341,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="17.25" customHeight="1">
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>158</v>
       </c>
@@ -3269,7 +3378,7 @@
       </c>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>159</v>
       </c>
@@ -3306,7 +3415,7 @@
       </c>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>160</v>
       </c>
@@ -3343,7 +3452,7 @@
       </c>
       <c r="K19" s="81"/>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="71" customHeight="1">
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>161</v>
       </c>
@@ -3382,7 +3491,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="68" t="s">
         <v>177</v>
       </c>
@@ -3419,7 +3528,7 @@
       </c>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="67" customHeight="1">
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="68" t="s">
         <v>98</v>
       </c>
@@ -3458,7 +3567,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="68" t="s">
         <v>178</v>
       </c>
@@ -3497,7 +3606,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="68" t="s">
         <v>179</v>
       </c>
@@ -3534,7 +3643,7 @@
       </c>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="25" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="68" t="s">
         <v>180</v>
       </c>
@@ -3573,7 +3682,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="68" t="s">
         <v>181</v>
       </c>
@@ -3610,7 +3719,7 @@
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="27" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="68" t="s">
         <v>182</v>
       </c>
@@ -3648,7 +3757,7 @@
       </c>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="28" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="68" t="s">
         <v>183</v>
       </c>
@@ -3686,7 +3795,7 @@
       </c>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="29" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="68" t="s">
         <v>184</v>
       </c>
@@ -3724,7 +3833,7 @@
       </c>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="30" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="68" t="s">
         <v>185</v>
       </c>
@@ -3762,7 +3871,7 @@
       </c>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="31" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="68" t="s">
         <v>186</v>
       </c>
@@ -3800,7 +3909,7 @@
       </c>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" ht="45" customHeight="1">
+    <row r="32" spans="1:11" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="68" t="s">
         <v>187</v>
       </c>
@@ -3840,7 +3949,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="33" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="68" t="s">
         <v>188</v>
       </c>
@@ -3878,7 +3987,7 @@
       </c>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="34" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="68" t="s">
         <v>189</v>
       </c>
@@ -3916,7 +4025,7 @@
       </c>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="35" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="68" t="s">
         <v>190</v>
       </c>
@@ -3956,7 +4065,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" ht="32" customHeight="1">
+    <row r="36" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="68" t="s">
         <v>211</v>
       </c>
@@ -3996,7 +4105,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="37" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="68" t="s">
         <v>212</v>
       </c>
@@ -4034,7 +4143,7 @@
       </c>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="38" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="68" t="s">
         <v>213</v>
       </c>
@@ -4072,7 +4181,7 @@
       </c>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="39" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="68" t="s">
         <v>214</v>
       </c>
@@ -4110,7 +4219,7 @@
       </c>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="40" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="68" t="s">
         <v>215</v>
       </c>
@@ -4148,7 +4257,7 @@
       </c>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="41" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="68" t="s">
         <v>216</v>
       </c>
@@ -4186,7 +4295,7 @@
       </c>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="42" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="68" t="s">
         <v>217</v>
       </c>
@@ -4224,7 +4333,7 @@
       </c>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="43" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="68" t="s">
         <v>218</v>
       </c>
@@ -4262,7 +4371,7 @@
       </c>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" ht="48" customHeight="1">
+    <row r="44" spans="1:11" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="68" t="s">
         <v>219</v>
       </c>
@@ -4302,7 +4411,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="45" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="68" t="s">
         <v>220</v>
       </c>
@@ -4340,7 +4449,7 @@
       </c>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" ht="45.75" customHeight="1">
+    <row r="46" spans="1:11" s="12" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="68" t="s">
         <v>221</v>
       </c>
@@ -4380,7 +4489,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" ht="74" customHeight="1">
+    <row r="47" spans="1:11" s="12" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="68" t="s">
         <v>222</v>
       </c>
@@ -4420,7 +4529,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="48" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="68" t="s">
         <v>239</v>
       </c>
@@ -4458,7 +4567,7 @@
       </c>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" ht="64" customHeight="1">
+    <row r="49" spans="1:11" s="12" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="68" t="s">
         <v>241</v>
       </c>
@@ -4498,7 +4607,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="50" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="24" t="str">
@@ -4526,7 +4635,7 @@
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="51" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="24" t="str">
@@ -4554,7 +4663,7 @@
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="52" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="24" t="str">
@@ -4582,7 +4691,7 @@
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="53" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="24" t="str">
@@ -4610,7 +4719,7 @@
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="54" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="24" t="str">
@@ -4638,7 +4747,7 @@
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="55" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="24" t="str">
@@ -4666,7 +4775,7 @@
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="56" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="24" t="str">
@@ -4694,7 +4803,7 @@
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="57" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="24" t="str">
@@ -4722,7 +4831,7 @@
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="58" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="24" t="str">
@@ -4750,7 +4859,7 @@
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="59" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="24" t="str">
@@ -4778,7 +4887,7 @@
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="60" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="24" t="str">
@@ -4806,7 +4915,7 @@
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="61" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="str">
         <f t="shared" ref="A61:A83" si="3">IF(OR(B61&lt;&gt;"",J61&lt;&gt;""),CONCATENATE(LEFT(A60,3),IF(MID(A60,4,2)+1&lt;10,CONCATENATE("0",MID(A60,4,2)+1),MID(A60,4,2)+1)),"")</f>
         <v/>
@@ -4837,7 +4946,7 @@
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="62" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4868,7 +4977,7 @@
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="63" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4899,7 +5008,7 @@
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="64" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4930,7 +5039,7 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="65" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4961,7 +5070,7 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="66" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4992,7 +5101,7 @@
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="67" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5023,7 +5132,7 @@
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="68" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5054,7 +5163,7 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1">
+    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5085,7 +5194,7 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1">
+    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5116,7 +5225,7 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1">
+    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5147,7 +5256,7 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1">
+    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5178,7 +5287,7 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1">
+    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5209,7 +5318,7 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1">
+    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5240,7 +5349,7 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1">
+    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5271,7 +5380,7 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1">
+    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5302,7 +5411,7 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1">
+    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5333,7 +5442,7 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1">
+    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5364,7 +5473,7 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1">
+    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5395,7 +5504,7 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1">
+    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5426,7 +5535,7 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1">
+    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5457,7 +5566,7 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1">
+    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5488,7 +5597,7 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1">
+    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5519,7 +5628,7 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1">
+    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="str">
         <f t="shared" ref="A84:A108" si="7">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
         <v/>
@@ -5550,7 +5659,7 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1">
+    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5581,7 +5690,7 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1">
+    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5612,7 +5721,7 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1">
+    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5643,7 +5752,7 @@
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="1:11" s="12" customFormat="1">
+    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5674,7 +5783,7 @@
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="12" customFormat="1">
+    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5705,7 +5814,7 @@
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="12" customFormat="1">
+    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5736,7 +5845,7 @@
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="12" customFormat="1">
+    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5767,7 +5876,7 @@
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="1:11" s="12" customFormat="1">
+    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5798,7 +5907,7 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="12" customFormat="1">
+    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5829,7 +5938,7 @@
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="1:11" s="12" customFormat="1">
+    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5860,7 +5969,7 @@
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" s="12" customFormat="1">
+    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5891,7 +6000,7 @@
       <c r="J95" s="14"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" s="12" customFormat="1">
+    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5922,7 +6031,7 @@
       <c r="J96" s="14"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="1:11" s="12" customFormat="1">
+    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5953,7 +6062,7 @@
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="1:11" s="12" customFormat="1">
+    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5984,7 +6093,7 @@
       <c r="J98" s="14"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="1:11" s="12" customFormat="1">
+    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6015,7 +6124,7 @@
       <c r="J99" s="14"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" s="12" customFormat="1">
+    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6046,7 +6155,7 @@
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" s="12" customFormat="1">
+    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6077,7 +6186,7 @@
       <c r="J101" s="14"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" s="12" customFormat="1">
+    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6108,7 +6217,7 @@
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" s="12" customFormat="1">
+    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6139,7 +6248,7 @@
       <c r="J103" s="14"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" s="12" customFormat="1">
+    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6170,7 +6279,7 @@
       <c r="J104" s="14"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" s="12" customFormat="1">
+    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6201,7 +6310,7 @@
       <c r="J105" s="14"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="1:11" s="12" customFormat="1">
+    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6232,7 +6341,7 @@
       <c r="J106" s="14"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="1:11" s="12" customFormat="1">
+    <row r="107" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6263,7 +6372,7 @@
       <c r="J107" s="14"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="1:11" s="12" customFormat="1">
+    <row r="108" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6368,25 +6477,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.1640625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="26"/>
-    <col min="3" max="3" width="13.83203125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="26" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="26"/>
+    <col min="1" max="1" width="72.125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="26"/>
+    <col min="3" max="3" width="13.875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="26" customWidth="1"/>
+    <col min="5" max="7" width="10.875" style="26"/>
     <col min="8" max="11" width="11" style="26" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="26"/>
+    <col min="12" max="16384" width="10.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="109" t="s">
         <v>38</v>
       </c>
@@ -6396,7 +6505,7 @@
       <c r="E1" s="110"/>
       <c r="F1" s="111"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>42</v>
       </c>
@@ -6408,7 +6517,7 @@
       <c r="E2" s="114"/>
       <c r="F2" s="36"/>
     </row>
-    <row r="3" spans="1:11" ht="60">
+    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>43</v>
       </c>
@@ -6432,7 +6541,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30">
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>44</v>
       </c>
@@ -6460,7 +6569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="76" thickBot="1">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>45</v>
       </c>
@@ -6487,7 +6596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="31" thickBot="1">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>10</v>
       </c>
@@ -6509,7 +6618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="46" thickBot="1">
+    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
         <v>11</v>
       </c>
@@ -6536,7 +6645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45">
+    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>53</v>
       </c>
@@ -6555,7 +6664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45">
+    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>12</v>
       </c>
@@ -6574,7 +6683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31" thickBot="1">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>36</v>
       </c>
@@ -6593,7 +6702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I11" s="26" t="s">
         <v>32</v>
       </c>
@@ -6604,7 +6713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I12" s="26" t="s">
         <v>37</v>
       </c>
@@ -6615,7 +6724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="109" t="s">
         <v>41</v>
       </c>
@@ -6634,7 +6743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -6651,7 +6760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>46</v>
       </c>
@@ -6669,7 +6778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.25" customHeight="1">
+    <row r="16" spans="1:11" ht="67.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>47</v>
       </c>
@@ -6693,7 +6802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>44</v>
       </c>
@@ -6714,7 +6823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="76" thickBot="1">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>48</v>
       </c>
@@ -6735,7 +6844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>10</v>
       </c>
@@ -6754,7 +6863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="61" thickBot="1">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
         <v>51</v>
       </c>
@@ -6776,7 +6885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H21" s="26" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -6793,122 +6902,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K22" s="26">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K23" s="26">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K24" s="26">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K25" s="26">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K26" s="26">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K27" s="26">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K28" s="26">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K29" s="26">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K30" s="26">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K31" s="26">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K32" s="26">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K33" s="26">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34" s="26">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K35" s="26">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K36" s="26">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K37" s="26">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K38" s="26">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K39" s="26">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K40" s="26">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K41" s="26">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K42" s="26">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K43" s="26">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K44" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K45" s="26" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -6942,19 +7051,18 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6963,21 +7071,20 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6988,19 +7095,18 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -7011,19 +7117,18 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -7032,13 +7137,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -7046,7 +7151,6 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -7055,13 +7159,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1054100</xdr:colOff>
+                    <xdr:colOff>1057275</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>863600</xdr:colOff>
+                    <xdr:colOff>866775</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -7069,7 +7173,6 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -7078,7 +7181,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7092,11 +7195,9 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7115,23 +7216,23 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="26" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="26"/>
-    <col min="5" max="5" width="11.6640625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="26" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="26"/>
+    <col min="5" max="5" width="11.625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="26" customWidth="1"/>
     <col min="7" max="7" width="11" style="26" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="26" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="26" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="22.125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="26" customWidth="1"/>
     <col min="11" max="11" width="44.5" style="26" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="26"/>
+    <col min="12" max="16384" width="10.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="123" t="s">
         <v>56</v>
       </c>
@@ -7159,7 +7260,7 @@
       <c r="I1" s="124"/>
       <c r="J1" s="124"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="123"/>
       <c r="B2" s="123"/>
       <c r="C2" s="123"/>
@@ -7177,7 +7278,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="47" customFormat="1">
+    <row r="3" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>69</v>
       </c>
@@ -7201,7 +7302,7 @@
       <c r="I3" s="46"/>
       <c r="J3" s="46"/>
     </row>
-    <row r="4" spans="1:11" s="47" customFormat="1">
+    <row r="4" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>57</v>
       </c>
@@ -7229,7 +7330,7 @@
       </c>
       <c r="J4" s="48"/>
     </row>
-    <row r="5" spans="1:11" s="47" customFormat="1">
+    <row r="5" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>77</v>
       </c>
@@ -7257,7 +7358,7 @@
       </c>
       <c r="J5" s="50"/>
     </row>
-    <row r="6" spans="1:11" s="47" customFormat="1">
+    <row r="6" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>58</v>
       </c>
@@ -7289,7 +7390,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="47" customFormat="1" ht="28">
+    <row r="7" spans="1:11" s="47" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>80</v>
       </c>
@@ -7317,7 +7418,7 @@
       </c>
       <c r="J7" s="48"/>
     </row>
-    <row r="8" spans="1:11" s="47" customFormat="1" ht="28">
+    <row r="8" spans="1:11" s="47" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>82</v>
       </c>
@@ -7345,7 +7446,7 @@
       </c>
       <c r="J8" s="48"/>
     </row>
-    <row r="9" spans="1:11" s="47" customFormat="1">
+    <row r="9" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>84</v>
       </c>
@@ -7373,7 +7474,7 @@
       </c>
       <c r="J9" s="48"/>
     </row>
-    <row r="10" spans="1:11" s="47" customFormat="1">
+    <row r="10" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>86</v>
       </c>
@@ -7399,7 +7500,7 @@
       </c>
       <c r="J10" s="48"/>
     </row>
-    <row r="11" spans="1:11" s="47" customFormat="1" ht="28">
+    <row r="11" spans="1:11" s="47" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>89</v>
       </c>
@@ -7427,7 +7528,7 @@
       </c>
       <c r="J11" s="48"/>
     </row>
-    <row r="12" spans="1:11" s="47" customFormat="1">
+    <row r="12" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>91</v>
       </c>
@@ -7455,7 +7556,7 @@
       </c>
       <c r="J12" s="48"/>
     </row>
-    <row r="13" spans="1:11" ht="60">
+    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
         <v>93</v>
       </c>
@@ -7482,7 +7583,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
         <v>97</v>
       </c>
@@ -7506,7 +7607,7 @@
       </c>
       <c r="J14" s="51"/>
     </row>
-    <row r="15" spans="1:11" ht="30">
+    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
         <v>99</v>
       </c>
@@ -7533,7 +7634,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="90">
+    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>103</v>
       </c>
@@ -7562,7 +7663,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="28">
+    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>106</v>
       </c>
@@ -7591,12 +7692,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
         <v>113</v>
       </c>
@@ -7609,7 +7710,7 @@
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
         <v>114</v>
       </c>
@@ -7622,7 +7723,7 @@
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>115</v>
       </c>
@@ -7635,7 +7736,7 @@
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
     </row>
-    <row r="24" spans="1:11" ht="30">
+    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
         <v>116</v>
       </c>
@@ -7648,7 +7749,7 @@
       <c r="D24" s="62"/>
       <c r="E24" s="62"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
         <v>117</v>
       </c>
@@ -7661,7 +7762,7 @@
       <c r="D25" s="62"/>
       <c r="E25" s="62"/>
     </row>
-    <row r="26" spans="1:11" ht="60">
+    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
         <v>118</v>
       </c>
